--- a/seasonal_patterns/seasonal_patterns.xlsx
+++ b/seasonal_patterns/seasonal_patterns.xlsx
@@ -521,7 +521,7 @@
         <v>19.99</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -549,7 +549,7 @@
         <v>73.92999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>1173</v>
       </c>
       <c r="F7" t="n">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -661,7 +661,7 @@
         <v>16157.49</v>
       </c>
       <c r="F8" t="n">
-        <v>488</v>
+        <v>902</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -689,7 +689,7 @@
         <v>5736.58</v>
       </c>
       <c r="F9" t="n">
-        <v>155</v>
+        <v>318</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -717,7 +717,7 @@
         <v>1486.84</v>
       </c>
       <c r="F10" t="n">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -745,7 +745,7 @@
         <v>249.08</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -773,7 +773,7 @@
         <v>4215.42</v>
       </c>
       <c r="F12" t="n">
-        <v>112</v>
+        <v>237</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -801,7 +801,7 @@
         <v>555.5</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -829,7 +829,7 @@
         <v>4289.66</v>
       </c>
       <c r="F14" t="n">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -885,7 +885,7 @@
         <v>2532.74</v>
       </c>
       <c r="F16" t="n">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -969,7 +969,7 @@
         <v>6711.74</v>
       </c>
       <c r="F19" t="n">
-        <v>173</v>
+        <v>375</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -997,7 +997,7 @@
         <v>2228.9</v>
       </c>
       <c r="F20" t="n">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
         <v>1085.4</v>
       </c>
       <c r="F21" t="n">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1053,7 +1053,7 @@
         <v>59.95</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -1081,7 +1081,7 @@
         <v>5566.76</v>
       </c>
       <c r="F23" t="n">
-        <v>98</v>
+        <v>408</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1109,7 +1109,7 @@
         <v>378.5</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1137,7 +1137,7 @@
         <v>1024</v>
       </c>
       <c r="F25" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -1165,7 +1165,7 @@
         <v>37.99</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1193,7 +1193,7 @@
         <v>29.24</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -1259,7 +1259,7 @@
         <v>-84.79239619809906</v>
       </c>
       <c r="H29" t="n">
-        <v>-50</v>
+        <v>-66.66666666666667</v>
       </c>
     </row>
     <row r="30">
@@ -1291,7 +1291,7 @@
         <v>-54.05112944677397</v>
       </c>
       <c r="H30" t="n">
-        <v>-40</v>
+        <v>-57.14285714285714</v>
       </c>
     </row>
     <row r="31">
@@ -1317,13 +1317,13 @@
         <v>131.99</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G31" t="n">
         <v>229.9750000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32">
@@ -1349,13 +1349,13 @@
         <v>189.81</v>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G32" t="n">
         <v>1800</v>
       </c>
       <c r="H32" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="33">
@@ -1381,13 +1381,13 @@
         <v>2682.72</v>
       </c>
       <c r="F33" t="n">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="G33" t="n">
         <v>128.7058823529412</v>
       </c>
       <c r="H33" t="n">
-        <v>101.7857142857143</v>
+        <v>98.03921568627452</v>
       </c>
     </row>
     <row r="34">
@@ -1413,13 +1413,13 @@
         <v>17876.12</v>
       </c>
       <c r="F34" t="n">
-        <v>581</v>
+        <v>1041</v>
       </c>
       <c r="G34" t="n">
         <v>10.63673875088271</v>
       </c>
       <c r="H34" t="n">
-        <v>19.05737704918034</v>
+        <v>15.41019955654102</v>
       </c>
     </row>
     <row r="35">
@@ -1445,13 +1445,13 @@
         <v>5485.3</v>
       </c>
       <c r="F35" t="n">
-        <v>154</v>
+        <v>329</v>
       </c>
       <c r="G35" t="n">
         <v>-4.380310219677918</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.6451612903225823</v>
+        <v>3.459119496855356</v>
       </c>
     </row>
     <row r="36">
@@ -1477,13 +1477,13 @@
         <v>3682.19</v>
       </c>
       <c r="F36" t="n">
-        <v>129</v>
+        <v>236</v>
       </c>
       <c r="G36" t="n">
         <v>147.652067471954</v>
       </c>
       <c r="H36" t="n">
-        <v>81.69014084507043</v>
+        <v>124.7619047619048</v>
       </c>
     </row>
     <row r="37">
@@ -1509,13 +1509,13 @@
         <v>136.15</v>
       </c>
       <c r="F37" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G37" t="n">
         <v>-45.33884695680103</v>
       </c>
       <c r="H37" t="n">
-        <v>-14.28571428571429</v>
+        <v>-27.27272727272727</v>
       </c>
     </row>
     <row r="38">
@@ -1541,13 +1541,13 @@
         <v>2197.94</v>
       </c>
       <c r="F38" t="n">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="G38" t="n">
         <v>-47.85952526675871</v>
       </c>
       <c r="H38" t="n">
-        <v>-32.14285714285714</v>
+        <v>-32.48945147679325</v>
       </c>
     </row>
     <row r="39">
@@ -1573,13 +1573,13 @@
         <v>533.48</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G39" t="n">
         <v>-3.963996399639957</v>
       </c>
       <c r="H39" t="n">
-        <v>-23.07692307692307</v>
+        <v>-7.407407407407407</v>
       </c>
     </row>
     <row r="40">
@@ -1605,13 +1605,13 @@
         <v>4572.55</v>
       </c>
       <c r="F40" t="n">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="G40" t="n">
         <v>6.59469515066462</v>
       </c>
       <c r="H40" t="n">
-        <v>17.89473684210525</v>
+        <v>16.57754010695187</v>
       </c>
     </row>
     <row r="41">
@@ -1669,7 +1669,7 @@
         <v>202.5</v>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
@@ -1697,13 +1697,13 @@
         <v>762.78</v>
       </c>
       <c r="F43" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G43" t="n">
         <v>-69.8832094885381</v>
       </c>
       <c r="H43" t="n">
-        <v>-60.37735849056604</v>
+        <v>-62.90322580645162</v>
       </c>
     </row>
     <row r="44">
@@ -1761,13 +1761,13 @@
         <v>7935.57</v>
       </c>
       <c r="F45" t="n">
-        <v>230</v>
+        <v>460</v>
       </c>
       <c r="G45" t="n">
         <v>18.23416878484565</v>
       </c>
       <c r="H45" t="n">
-        <v>32.94797687861271</v>
+        <v>22.66666666666666</v>
       </c>
     </row>
     <row r="46">
@@ -1793,13 +1793,13 @@
         <v>3200.98</v>
       </c>
       <c r="F46" t="n">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="G46" t="n">
         <v>43.61254430436539</v>
       </c>
       <c r="H46" t="n">
-        <v>55.55555555555556</v>
+        <v>48.83720930232558</v>
       </c>
     </row>
     <row r="47">
@@ -1825,13 +1825,13 @@
         <v>2498.7</v>
       </c>
       <c r="F47" t="n">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="G47" t="n">
         <v>130.2100608070757</v>
       </c>
       <c r="H47" t="n">
-        <v>113.7931034482758</v>
+        <v>129.5081967213115</v>
       </c>
     </row>
     <row r="48">
@@ -1857,13 +1857,13 @@
         <v>23.98</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
         <v>-60.00000000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>-66.66666666666667</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="49">
@@ -1889,7 +1889,7 @@
         <v>402.5</v>
       </c>
       <c r="F49" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
@@ -1917,13 +1917,13 @@
         <v>3447.4</v>
       </c>
       <c r="F50" t="n">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="G50" t="n">
         <v>-38.0716970014874</v>
       </c>
       <c r="H50" t="n">
-        <v>4.081632653061229</v>
+        <v>-53.43137254901961</v>
       </c>
     </row>
     <row r="51">
@@ -1949,13 +1949,13 @@
         <v>465.95</v>
       </c>
       <c r="F51" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G51" t="n">
         <v>23.10435931307793</v>
       </c>
       <c r="H51" t="n">
-        <v>-9.999999999999998</v>
+        <v>26.31578947368421</v>
       </c>
     </row>
     <row r="52">
@@ -1981,13 +1981,13 @@
         <v>1497</v>
       </c>
       <c r="F52" t="n">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="G52" t="n">
         <v>46.19140625</v>
       </c>
       <c r="H52" t="n">
-        <v>25</v>
+        <v>40.81632653061224</v>
       </c>
     </row>
     <row r="53">
@@ -2013,13 +2013,13 @@
         <v>102.4</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G53" t="n">
         <v>169.5446170044748</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>66.66666666666667</v>
       </c>
     </row>
     <row r="54">
@@ -2045,13 +2045,13 @@
         <v>49.95</v>
       </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G54" t="n">
         <v>400</v>
       </c>
       <c r="H54" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55">
@@ -2077,13 +2077,13 @@
         <v>39.96</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G55" t="n">
         <v>1214.473684210527</v>
       </c>
       <c r="H55" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56">
@@ -2109,13 +2109,13 @@
         <v>38.5</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
         <v>13.33529584927877</v>
       </c>
       <c r="H56" t="n">
-        <v>-33.33333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2141,13 +2141,13 @@
         <v>388.96</v>
       </c>
       <c r="F57" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G57" t="n">
         <v>194.6889915902719</v>
       </c>
       <c r="H57" t="n">
-        <v>266.6666666666666</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58">
@@ -2173,13 +2173,13 @@
         <v>2037.96</v>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="G58" t="n">
         <v>973.6842105263157</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>973.6842105263157</v>
       </c>
     </row>
     <row r="59">
@@ -2205,13 +2205,13 @@
         <v>8965.91</v>
       </c>
       <c r="F59" t="n">
-        <v>289</v>
+        <v>539</v>
       </c>
       <c r="G59" t="n">
         <v>234.2096827100853</v>
       </c>
       <c r="H59" t="n">
-        <v>155.7522123893806</v>
+        <v>166.8316831683169</v>
       </c>
     </row>
     <row r="60">
@@ -2237,13 +2237,13 @@
         <v>61245.7</v>
       </c>
       <c r="F60" t="n">
-        <v>1648</v>
+        <v>3185</v>
       </c>
       <c r="G60" t="n">
         <v>242.6118195671096</v>
       </c>
       <c r="H60" t="n">
-        <v>183.6488812392427</v>
+        <v>205.9558117195005</v>
       </c>
     </row>
     <row r="61">
@@ -2269,13 +2269,13 @@
         <v>10021.97</v>
       </c>
       <c r="F61" t="n">
-        <v>260</v>
+        <v>545</v>
       </c>
       <c r="G61" t="n">
         <v>82.70595956465461</v>
       </c>
       <c r="H61" t="n">
-        <v>68.83116883116882</v>
+        <v>65.65349544072949</v>
       </c>
     </row>
     <row r="62">
@@ -2301,13 +2301,13 @@
         <v>6184.29</v>
       </c>
       <c r="F62" t="n">
-        <v>198</v>
+        <v>368</v>
       </c>
       <c r="G62" t="n">
         <v>67.95140935150006</v>
       </c>
       <c r="H62" t="n">
-        <v>53.48837209302326</v>
+        <v>55.93220338983051</v>
       </c>
     </row>
     <row r="63">
@@ -2333,13 +2333,13 @@
         <v>200.35</v>
       </c>
       <c r="F63" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G63" t="n">
         <v>47.15387440323171</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="64">
@@ -2365,13 +2365,13 @@
         <v>5668.5</v>
       </c>
       <c r="F64" t="n">
-        <v>158</v>
+        <v>339</v>
       </c>
       <c r="G64" t="n">
         <v>157.9005796336569</v>
       </c>
       <c r="H64" t="n">
-        <v>107.8947368421053</v>
+        <v>111.875</v>
       </c>
     </row>
     <row r="65">
@@ -2397,13 +2397,13 @@
         <v>2652.88</v>
       </c>
       <c r="F65" t="n">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="G65" t="n">
         <v>397.2782484816675</v>
       </c>
       <c r="H65" t="n">
-        <v>250</v>
+        <v>351.9999999999999</v>
       </c>
     </row>
     <row r="66">
@@ -2429,13 +2429,13 @@
         <v>11724.05</v>
       </c>
       <c r="F66" t="n">
-        <v>167</v>
+        <v>339</v>
       </c>
       <c r="G66" t="n">
         <v>156.4006954543963</v>
       </c>
       <c r="H66" t="n">
-        <v>49.10714285714286</v>
+        <v>55.50458715596329</v>
       </c>
     </row>
     <row r="67">
@@ -2493,7 +2493,7 @@
         <v>243</v>
       </c>
       <c r="F68" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G68" t="n">
         <v>20</v>
@@ -2553,13 +2553,13 @@
         <v>429.36</v>
       </c>
       <c r="F70" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G70" t="n">
         <v>-43.71116180287894</v>
       </c>
       <c r="H70" t="n">
-        <v>-33.33333333333334</v>
+        <v>-39.13043478260869</v>
       </c>
     </row>
     <row r="71">
@@ -2645,7 +2645,7 @@
         <v>297</v>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
@@ -2673,13 +2673,13 @@
         <v>24667.61</v>
       </c>
       <c r="F74" t="n">
-        <v>588</v>
+        <v>1291</v>
       </c>
       <c r="G74" t="n">
         <v>210.8486220901586</v>
       </c>
       <c r="H74" t="n">
-        <v>155.6521739130435</v>
+        <v>180.6521739130435</v>
       </c>
     </row>
     <row r="75">
@@ -2705,13 +2705,13 @@
         <v>3453.15</v>
       </c>
       <c r="F75" t="n">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="G75" t="n">
         <v>7.877899893157725</v>
       </c>
       <c r="H75" t="n">
-        <v>2.380952380952372</v>
+        <v>-0.520833333333337</v>
       </c>
     </row>
     <row r="76">
@@ -2737,13 +2737,13 @@
         <v>3375.58</v>
       </c>
       <c r="F76" t="n">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="G76" t="n">
         <v>35.0934485932685</v>
       </c>
       <c r="H76" t="n">
-        <v>40.3225806451613</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
@@ -2769,7 +2769,7 @@
         <v>229</v>
       </c>
       <c r="F77" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
@@ -2797,13 +2797,13 @@
         <v>47.96</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G78" t="n">
         <v>100</v>
       </c>
       <c r="H78" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79">
@@ -2829,13 +2829,13 @@
         <v>1356</v>
       </c>
       <c r="F79" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="G79" t="n">
         <v>236.8944099378882</v>
       </c>
       <c r="H79" t="n">
-        <v>357.1428571428571</v>
+        <v>261.1111111111111</v>
       </c>
     </row>
     <row r="80">
@@ -2861,13 +2861,13 @@
         <v>12735</v>
       </c>
       <c r="F80" t="n">
-        <v>223</v>
+        <v>490</v>
       </c>
       <c r="G80" t="n">
         <v>269.4088298427801</v>
       </c>
       <c r="H80" t="n">
-        <v>118.6274509803921</v>
+        <v>157.8947368421053</v>
       </c>
     </row>
     <row r="81">
@@ -2893,13 +2893,13 @@
         <v>930.95</v>
       </c>
       <c r="F81" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G81" t="n">
         <v>99.79611546303254</v>
       </c>
       <c r="H81" t="n">
-        <v>100</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="82">
@@ -2925,13 +2925,13 @@
         <v>3272</v>
       </c>
       <c r="F82" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="G82" t="n">
         <v>118.5704742818971</v>
       </c>
       <c r="H82" t="n">
-        <v>113.3333333333333</v>
+        <v>117.3913043478261</v>
       </c>
     </row>
     <row r="83">
@@ -2963,7 +2963,7 @@
         <v>-17.91992187500001</v>
       </c>
       <c r="H83" t="n">
-        <v>250</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="84">
@@ -3017,13 +3017,13 @@
         <v>99.90000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
         <v>100</v>
       </c>
       <c r="H85" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86">
@@ -3049,13 +3049,13 @@
         <v>99.90000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
         <v>150</v>
       </c>
       <c r="H86" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87">
@@ -3081,13 +3081,13 @@
         <v>185.76</v>
       </c>
       <c r="F87" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G87" t="n">
         <v>382.4935064935065</v>
       </c>
       <c r="H87" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="88">
@@ -3113,13 +3113,13 @@
         <v>821.9400000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G88" t="n">
         <v>111.3173591114768</v>
       </c>
       <c r="H88" t="n">
-        <v>36.36363636363635</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="89">
@@ -3145,13 +3145,13 @@
         <v>77.33</v>
       </c>
       <c r="F89" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G89" t="n">
         <v>-96.20551924473493</v>
       </c>
       <c r="H89" t="n">
-        <v>25</v>
+        <v>-96.07843137254902</v>
       </c>
     </row>
     <row r="90">
@@ -3177,13 +3177,13 @@
         <v>32016.61</v>
       </c>
       <c r="F90" t="n">
-        <v>669</v>
+        <v>1346</v>
       </c>
       <c r="G90" t="n">
         <v>257.0926989006136</v>
       </c>
       <c r="H90" t="n">
-        <v>131.4878892733564</v>
+        <v>149.721706864564</v>
       </c>
     </row>
     <row r="91">
@@ -3209,13 +3209,13 @@
         <v>180212.25</v>
       </c>
       <c r="F91" t="n">
-        <v>3114</v>
+        <v>6488</v>
       </c>
       <c r="G91" t="n">
         <v>194.2447388143168</v>
       </c>
       <c r="H91" t="n">
-        <v>88.95631067961165</v>
+        <v>103.7048665620094</v>
       </c>
     </row>
     <row r="92">
@@ -3241,13 +3241,13 @@
         <v>33437.66</v>
       </c>
       <c r="F92" t="n">
-        <v>494</v>
+        <v>1164</v>
       </c>
       <c r="G92" t="n">
         <v>233.6435850436591</v>
       </c>
       <c r="H92" t="n">
-        <v>89.99999999999999</v>
+        <v>113.5779816513761</v>
       </c>
     </row>
     <row r="93">
@@ -3273,13 +3273,13 @@
         <v>45373.76</v>
       </c>
       <c r="F93" t="n">
-        <v>878</v>
+        <v>1782</v>
       </c>
       <c r="G93" t="n">
         <v>633.6939244440348</v>
       </c>
       <c r="H93" t="n">
-        <v>343.4343434343434</v>
+        <v>384.2391304347826</v>
       </c>
     </row>
     <row r="94">
@@ -3305,13 +3305,13 @@
         <v>440.24</v>
       </c>
       <c r="F94" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G94" t="n">
         <v>119.7354629398553</v>
       </c>
       <c r="H94" t="n">
-        <v>50</v>
+        <v>71.42857142857142</v>
       </c>
     </row>
     <row r="95">
@@ -3337,13 +3337,13 @@
         <v>21147.39</v>
       </c>
       <c r="F95" t="n">
-        <v>338</v>
+        <v>766</v>
       </c>
       <c r="G95" t="n">
         <v>273.0685366499073</v>
       </c>
       <c r="H95" t="n">
-        <v>113.9240506329114</v>
+        <v>125.9587020648968</v>
       </c>
     </row>
     <row r="96">
@@ -3369,13 +3369,13 @@
         <v>3613.23</v>
       </c>
       <c r="F96" t="n">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="G96" t="n">
         <v>36.20028044992611</v>
       </c>
       <c r="H96" t="n">
-        <v>71.42857142857142</v>
+        <v>39.82300884955752</v>
       </c>
     </row>
     <row r="97">
@@ -3401,13 +3401,13 @@
         <v>17845.66</v>
       </c>
       <c r="F97" t="n">
-        <v>278</v>
+        <v>569</v>
       </c>
       <c r="G97" t="n">
         <v>52.21412395887089</v>
       </c>
       <c r="H97" t="n">
-        <v>66.46706586826348</v>
+        <v>67.84660766961652</v>
       </c>
     </row>
     <row r="98">
@@ -3465,7 +3465,7 @@
         <v>388.97</v>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G99" t="n">
         <v>60.06995884773663</v>
@@ -3497,13 +3497,13 @@
         <v>2213.47</v>
       </c>
       <c r="F100" t="n">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="G100" t="n">
         <v>415.5277622507919</v>
       </c>
       <c r="H100" t="n">
-        <v>135.7142857142857</v>
+        <v>228.5714285714286</v>
       </c>
     </row>
     <row r="101">
@@ -3561,13 +3561,13 @@
         <v>73.83</v>
       </c>
       <c r="F102" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G102" t="n">
         <v>824.0300375469337</v>
       </c>
       <c r="H102" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="103">
@@ -3593,13 +3593,13 @@
         <v>4174.2</v>
       </c>
       <c r="F103" t="n">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="G103" t="n">
         <v>1305.454545454545</v>
       </c>
       <c r="H103" t="n">
-        <v>840</v>
+        <v>1181.25</v>
       </c>
     </row>
     <row r="104">
@@ -3625,13 +3625,13 @@
         <v>78870.77</v>
       </c>
       <c r="F104" t="n">
-        <v>1706</v>
+        <v>4046</v>
       </c>
       <c r="G104" t="n">
         <v>219.734137194483</v>
       </c>
       <c r="H104" t="n">
-        <v>190.1360544217687</v>
+        <v>213.4004647560031</v>
       </c>
     </row>
     <row r="105">
@@ -3657,13 +3657,13 @@
         <v>26678.2</v>
       </c>
       <c r="F105" t="n">
-        <v>530</v>
+        <v>1399</v>
       </c>
       <c r="G105" t="n">
         <v>672.5757641573636</v>
       </c>
       <c r="H105" t="n">
-        <v>516.2790697674419</v>
+        <v>632.4607329842931</v>
       </c>
     </row>
     <row r="106">
@@ -3689,13 +3689,13 @@
         <v>14614.88</v>
       </c>
       <c r="F106" t="n">
-        <v>319</v>
+        <v>789</v>
       </c>
       <c r="G106" t="n">
         <v>332.9590766623811</v>
       </c>
       <c r="H106" t="n">
-        <v>266.6666666666666</v>
+        <v>333.5164835164835</v>
       </c>
     </row>
     <row r="107">
@@ -3721,13 +3721,13 @@
         <v>1193.9</v>
       </c>
       <c r="F107" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="G107" t="n">
         <v>421.353711790393</v>
       </c>
       <c r="H107" t="n">
-        <v>300</v>
+        <v>390.9090909090909</v>
       </c>
     </row>
     <row r="108">
@@ -3753,13 +3753,13 @@
         <v>59.95</v>
       </c>
       <c r="F108" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G108" t="n">
         <v>25</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109">
@@ -3785,13 +3785,13 @@
         <v>2213.36</v>
       </c>
       <c r="F109" t="n">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="G109" t="n">
         <v>63.22713864306786</v>
       </c>
       <c r="H109" t="n">
-        <v>65.625</v>
+        <v>66.15384615384616</v>
       </c>
     </row>
     <row r="110">
@@ -3817,13 +3817,13 @@
         <v>23938.58</v>
       </c>
       <c r="F110" t="n">
-        <v>400</v>
+        <v>945</v>
       </c>
       <c r="G110" t="n">
         <v>87.97471535139378</v>
       </c>
       <c r="H110" t="n">
-        <v>79.37219730941705</v>
+        <v>92.85714285714286</v>
       </c>
     </row>
     <row r="111">
@@ -3849,13 +3849,13 @@
         <v>1711.18</v>
       </c>
       <c r="F111" t="n">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="G111" t="n">
         <v>83.81008647080938</v>
       </c>
       <c r="H111" t="n">
-        <v>83.33333333333333</v>
+        <v>86.66666666666667</v>
       </c>
     </row>
     <row r="112">
@@ -3881,13 +3881,13 @@
         <v>2724.59</v>
       </c>
       <c r="F112" t="n">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="G112" t="n">
         <v>-16.73013447432763</v>
       </c>
       <c r="H112" t="n">
-        <v>-18.75</v>
+        <v>-19.33333333333334</v>
       </c>
     </row>
     <row r="113">
@@ -3913,13 +3913,13 @@
         <v>2209.17</v>
       </c>
       <c r="F113" t="n">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="G113" t="n">
         <v>2528.399762046401</v>
       </c>
       <c r="H113" t="n">
-        <v>314.2857142857143</v>
+        <v>1214.285714285714</v>
       </c>
     </row>
     <row r="114">
@@ -3945,7 +3945,7 @@
         <v>29.24</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>-60.00000000000001</v>
       </c>
       <c r="H116" t="n">
-        <v>-55.55555555555556</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="117">
@@ -4041,13 +4041,13 @@
         <v>69.93000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G117" t="n">
         <v>-29.99999999999999</v>
       </c>
       <c r="H117" t="n">
-        <v>-16.66666666666666</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="118">
@@ -4073,13 +4073,13 @@
         <v>191.47</v>
       </c>
       <c r="F118" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G118" t="n">
         <v>3.073858742463398</v>
       </c>
       <c r="H118" t="n">
-        <v>-16.66666666666666</v>
+        <v>-6.666666666666665</v>
       </c>
     </row>
     <row r="119">
@@ -4105,13 +4105,13 @@
         <v>900.85</v>
       </c>
       <c r="F119" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G119" t="n">
         <v>9.600457454315393</v>
       </c>
       <c r="H119" t="n">
-        <v>60.00000000000001</v>
+        <v>36.66666666666667</v>
       </c>
     </row>
     <row r="120">
@@ -4137,13 +4137,13 @@
         <v>29.97</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G120" t="n">
         <v>-61.24401913875599</v>
       </c>
       <c r="H120" t="n">
-        <v>-60</v>
+        <v>-62.5</v>
       </c>
     </row>
     <row r="121">
@@ -4169,13 +4169,13 @@
         <v>34140.02</v>
       </c>
       <c r="F121" t="n">
-        <v>857</v>
+        <v>1583</v>
       </c>
       <c r="G121" t="n">
         <v>6.632213716567725</v>
       </c>
       <c r="H121" t="n">
-        <v>28.10164424514201</v>
+        <v>17.60772659732541</v>
       </c>
     </row>
     <row r="122">
@@ -4201,13 +4201,13 @@
         <v>268633.12</v>
       </c>
       <c r="F122" t="n">
-        <v>4491</v>
+        <v>9133</v>
       </c>
       <c r="G122" t="n">
         <v>49.06484992002487</v>
       </c>
       <c r="H122" t="n">
-        <v>44.21965317919074</v>
+        <v>40.7675709001233</v>
       </c>
     </row>
     <row r="123">
@@ -4233,13 +4233,13 @@
         <v>40171.72</v>
       </c>
       <c r="F123" t="n">
-        <v>571</v>
+        <v>1299</v>
       </c>
       <c r="G123" t="n">
         <v>20.13914849304646</v>
       </c>
       <c r="H123" t="n">
-        <v>15.58704453441295</v>
+        <v>11.5979381443299</v>
       </c>
     </row>
     <row r="124">
@@ -4265,13 +4265,13 @@
         <v>49139.41</v>
       </c>
       <c r="F124" t="n">
-        <v>1056</v>
+        <v>2008</v>
       </c>
       <c r="G124" t="n">
         <v>8.299179966570991</v>
       </c>
       <c r="H124" t="n">
-        <v>20.27334851936218</v>
+        <v>12.68237934904601</v>
       </c>
     </row>
     <row r="125">
@@ -4297,13 +4297,13 @@
         <v>268.8</v>
       </c>
       <c r="F125" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G125" t="n">
         <v>-38.94239505724151</v>
       </c>
       <c r="H125" t="n">
-        <v>-16.66666666666666</v>
+        <v>-47.22222222222222</v>
       </c>
     </row>
     <row r="126">
@@ -4329,13 +4329,13 @@
         <v>9600.26</v>
       </c>
       <c r="F126" t="n">
-        <v>189</v>
+        <v>389</v>
       </c>
       <c r="G126" t="n">
         <v>-54.603097592658</v>
       </c>
       <c r="H126" t="n">
-        <v>-44.08284023668639</v>
+        <v>-49.21671018276762</v>
       </c>
     </row>
     <row r="127">
@@ -4361,13 +4361,13 @@
         <v>2595.94</v>
       </c>
       <c r="F127" t="n">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="G127" t="n">
         <v>-28.15458744668897</v>
       </c>
       <c r="H127" t="n">
-        <v>-8.333333333333337</v>
+        <v>-24.68354430379747</v>
       </c>
     </row>
     <row r="128">
@@ -4393,13 +4393,13 @@
         <v>28288.42</v>
       </c>
       <c r="F128" t="n">
-        <v>331</v>
+        <v>717</v>
       </c>
       <c r="G128" t="n">
         <v>58.51708482622664</v>
       </c>
       <c r="H128" t="n">
-        <v>19.06474820143884</v>
+        <v>26.01054481546572</v>
       </c>
     </row>
     <row r="129">
@@ -4457,13 +4457,13 @@
         <v>1118.43</v>
       </c>
       <c r="F130" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G130" t="n">
         <v>187.5363138545389</v>
       </c>
       <c r="H130" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131">
@@ -4521,13 +4521,13 @@
         <v>907.11</v>
       </c>
       <c r="F132" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G132" t="n">
         <v>-59.0186449330689</v>
       </c>
       <c r="H132" t="n">
-        <v>-39.39393939393939</v>
+        <v>-52.17391304347826</v>
       </c>
     </row>
     <row r="133">
@@ -4553,13 +4553,13 @@
         <v>23.64</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G133" t="n">
         <v>195.8698372966208</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134">
@@ -4591,7 +4591,7 @@
         <v>-86.46891507517269</v>
       </c>
       <c r="H134" t="n">
-        <v>-87.5</v>
+        <v>-88.88888888888889</v>
       </c>
     </row>
     <row r="135">
@@ -4617,13 +4617,13 @@
         <v>8478.17</v>
       </c>
       <c r="F135" t="n">
-        <v>207</v>
+        <v>441</v>
       </c>
       <c r="G135" t="n">
         <v>103.1088591825979</v>
       </c>
       <c r="H135" t="n">
-        <v>120.2127659574468</v>
+        <v>115.1219512195122</v>
       </c>
     </row>
     <row r="136">
@@ -4649,13 +4649,13 @@
         <v>125265.56</v>
       </c>
       <c r="F136" t="n">
-        <v>2859</v>
+        <v>6358</v>
       </c>
       <c r="G136" t="n">
         <v>58.82380760324768</v>
       </c>
       <c r="H136" t="n">
-        <v>67.5849941383353</v>
+        <v>57.14285714285714</v>
       </c>
     </row>
     <row r="137">
@@ -4681,13 +4681,13 @@
         <v>19846.06</v>
       </c>
       <c r="F137" t="n">
-        <v>446</v>
+        <v>1056</v>
       </c>
       <c r="G137" t="n">
         <v>-25.60944891334498</v>
       </c>
       <c r="H137" t="n">
-        <v>-15.84905660377358</v>
+        <v>-24.51751250893496</v>
       </c>
     </row>
     <row r="138">
@@ -4713,13 +4713,13 @@
         <v>28899.56</v>
       </c>
       <c r="F138" t="n">
-        <v>681</v>
+        <v>1577</v>
       </c>
       <c r="G138" t="n">
         <v>97.74065883537872</v>
       </c>
       <c r="H138" t="n">
-        <v>113.4796238244514</v>
+        <v>99.87325728770595</v>
       </c>
     </row>
     <row r="139">
@@ -4745,13 +4745,13 @@
         <v>865.6</v>
       </c>
       <c r="F139" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G139" t="n">
         <v>-27.49811542005192</v>
       </c>
       <c r="H139" t="n">
-        <v>-33.33333333333334</v>
+        <v>-29.62962962962963</v>
       </c>
     </row>
     <row r="140">
@@ -4777,13 +4777,13 @@
         <v>49.95</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G140" t="n">
         <v>-16.68056713928273</v>
       </c>
       <c r="H140" t="n">
-        <v>-66.66666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -4809,13 +4809,13 @@
         <v>961.3000000000001</v>
       </c>
       <c r="F141" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="G141" t="n">
         <v>-56.5682943578993</v>
       </c>
       <c r="H141" t="n">
-        <v>-50.9433962264151</v>
+        <v>-45.37037037037037</v>
       </c>
     </row>
     <row r="142">
@@ -4841,13 +4841,13 @@
         <v>16451.41</v>
       </c>
       <c r="F142" t="n">
-        <v>326</v>
+        <v>711</v>
       </c>
       <c r="G142" t="n">
         <v>-31.27658365700889</v>
       </c>
       <c r="H142" t="n">
-        <v>-18.50000000000001</v>
+        <v>-24.76190476190476</v>
       </c>
     </row>
     <row r="143">
@@ -4873,13 +4873,13 @@
         <v>356.45</v>
       </c>
       <c r="F143" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G143" t="n">
         <v>-79.16934513026099</v>
       </c>
       <c r="H143" t="n">
-        <v>-75.75757575757575</v>
+        <v>-78.57142857142857</v>
       </c>
     </row>
     <row r="144">
@@ -4905,13 +4905,13 @@
         <v>1283.55</v>
       </c>
       <c r="F144" t="n">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="G144" t="n">
         <v>-52.89015962034655</v>
       </c>
       <c r="H144" t="n">
-        <v>-46.15384615384615</v>
+        <v>-45.45454545454546</v>
       </c>
     </row>
     <row r="145">
@@ -4937,7 +4937,7 @@
         <v>39.96</v>
       </c>
       <c r="F145" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
@@ -4965,7 +4965,7 @@
         <v>92.39000000000001</v>
       </c>
       <c r="F146" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
@@ -4993,13 +4993,13 @@
         <v>1340.98</v>
       </c>
       <c r="F147" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="G147" t="n">
         <v>-39.29937487834798</v>
       </c>
       <c r="H147" t="n">
-        <v>6.896551724137923</v>
+        <v>-40.21739130434783</v>
       </c>
     </row>
     <row r="148">
@@ -5025,13 +5025,13 @@
         <v>49.95</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G148" t="n">
         <v>70.82763337893299</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149">
@@ -5127,7 +5127,7 @@
         <v>-85.71428571428572</v>
       </c>
       <c r="H151" t="n">
-        <v>-80</v>
+        <v>-85.71428571428572</v>
       </c>
     </row>
     <row r="152">
@@ -5153,13 +5153,13 @@
         <v>71.94</v>
       </c>
       <c r="F152" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G152" t="n">
         <v>-62.42753433958323</v>
       </c>
       <c r="H152" t="n">
-        <v>-80</v>
+        <v>-57.14285714285714</v>
       </c>
     </row>
     <row r="153">
@@ -5185,13 +5185,13 @@
         <v>395.8</v>
       </c>
       <c r="F153" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G153" t="n">
         <v>-56.06371760004441</v>
       </c>
       <c r="H153" t="n">
-        <v>-29.16666666666666</v>
+        <v>-34.14634146341463</v>
       </c>
     </row>
     <row r="154">
@@ -5217,7 +5217,7 @@
         <v>29.97</v>
       </c>
       <c r="F154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -5249,13 +5249,13 @@
         <v>30239.33</v>
       </c>
       <c r="F155" t="n">
-        <v>776</v>
+        <v>1440</v>
       </c>
       <c r="G155" t="n">
         <v>-11.42556448414499</v>
       </c>
       <c r="H155" t="n">
-        <v>-9.451575262543754</v>
+        <v>-9.033480732785847</v>
       </c>
     </row>
     <row r="156">
@@ -5281,13 +5281,13 @@
         <v>331151.25</v>
       </c>
       <c r="F156" t="n">
-        <v>5413</v>
+        <v>11567</v>
       </c>
       <c r="G156" t="n">
         <v>23.2726813432387</v>
       </c>
       <c r="H156" t="n">
-        <v>20.52994878646182</v>
+        <v>26.65060768641192</v>
       </c>
     </row>
     <row r="157">
@@ -5313,13 +5313,13 @@
         <v>36982.48</v>
       </c>
       <c r="F157" t="n">
-        <v>647</v>
+        <v>1422</v>
       </c>
       <c r="G157" t="n">
         <v>-7.93901779659919</v>
       </c>
       <c r="H157" t="n">
-        <v>13.30998248686515</v>
+        <v>9.468822170900705</v>
       </c>
     </row>
     <row r="158">
@@ -5345,13 +5345,13 @@
         <v>36887.81</v>
       </c>
       <c r="F158" t="n">
-        <v>806</v>
+        <v>1586</v>
       </c>
       <c r="G158" t="n">
         <v>-24.93233028235383</v>
       </c>
       <c r="H158" t="n">
-        <v>-23.67424242424242</v>
+        <v>-21.01593625498008</v>
       </c>
     </row>
     <row r="159">
@@ -5377,13 +5377,13 @@
         <v>323.3</v>
       </c>
       <c r="F159" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G159" t="n">
         <v>20.27529761904763</v>
       </c>
       <c r="H159" t="n">
-        <v>6.666666666666665</v>
+        <v>21.05263157894737</v>
       </c>
     </row>
     <row r="160">
@@ -5409,13 +5409,13 @@
         <v>20834.84</v>
       </c>
       <c r="F160" t="n">
-        <v>397</v>
+        <v>821</v>
       </c>
       <c r="G160" t="n">
         <v>117.0237056079731</v>
       </c>
       <c r="H160" t="n">
-        <v>110.0529100529101</v>
+        <v>111.0539845758355</v>
       </c>
     </row>
     <row r="161">
@@ -5441,13 +5441,13 @@
         <v>1794.2</v>
       </c>
       <c r="F161" t="n">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="G161" t="n">
         <v>-30.88438099493825</v>
       </c>
       <c r="H161" t="n">
-        <v>-14.54545454545455</v>
+        <v>-14.28571428571429</v>
       </c>
     </row>
     <row r="162">
@@ -5473,13 +5473,13 @@
         <v>28251.95</v>
       </c>
       <c r="F162" t="n">
-        <v>421</v>
+        <v>840</v>
       </c>
       <c r="G162" t="n">
         <v>-0.1289220111975076</v>
       </c>
       <c r="H162" t="n">
-        <v>27.19033232628398</v>
+        <v>17.15481171548117</v>
       </c>
     </row>
     <row r="163">
@@ -5505,13 +5505,13 @@
         <v>383.72</v>
       </c>
       <c r="F163" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G163" t="n">
         <v>16.39518306184973</v>
       </c>
       <c r="H163" t="n">
-        <v>-3.030303030303028</v>
+        <v>3.030303030303028</v>
       </c>
     </row>
     <row r="164">
@@ -5537,13 +5537,13 @@
         <v>221.5</v>
       </c>
       <c r="F164" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G164" t="n">
         <v>-80.19545255402663</v>
       </c>
       <c r="H164" t="n">
-        <v>-77.27272727272727</v>
+        <v>-78.26086956521739</v>
       </c>
     </row>
     <row r="165">
@@ -5569,13 +5569,13 @@
         <v>960.98</v>
       </c>
       <c r="F165" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="G165" t="n">
         <v>5.938640297207609</v>
       </c>
       <c r="H165" t="n">
-        <v>5.000000000000004</v>
+        <v>9.090909090909083</v>
       </c>
     </row>
     <row r="166">
@@ -5607,7 +5607,7 @@
         <v>-66.20135363790186</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="167">
@@ -5633,13 +5633,13 @@
         <v>39.96</v>
       </c>
       <c r="F167" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G167" t="n">
         <v>300</v>
       </c>
       <c r="H167" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="168">
@@ -5665,13 +5665,13 @@
         <v>6940.56</v>
       </c>
       <c r="F168" t="n">
-        <v>180</v>
+        <v>368</v>
       </c>
       <c r="G168" t="n">
         <v>-18.13610720237976</v>
       </c>
       <c r="H168" t="n">
-        <v>-13.04347826086957</v>
+        <v>-16.55328798185941</v>
       </c>
     </row>
     <row r="169">
@@ -5697,13 +5697,13 @@
         <v>116600.41</v>
       </c>
       <c r="F169" t="n">
-        <v>2524</v>
+        <v>5862</v>
       </c>
       <c r="G169" t="n">
         <v>-6.917424070909828</v>
       </c>
       <c r="H169" t="n">
-        <v>-11.71738370059461</v>
+        <v>-7.801195344447942</v>
       </c>
     </row>
     <row r="170">
@@ -5729,13 +5729,13 @@
         <v>16897.09</v>
       </c>
       <c r="F170" t="n">
-        <v>355</v>
+        <v>871</v>
       </c>
       <c r="G170" t="n">
         <v>-14.85922142732613</v>
       </c>
       <c r="H170" t="n">
-        <v>-20.40358744394619</v>
+        <v>-17.51893939393939</v>
       </c>
     </row>
     <row r="171">
@@ -5761,13 +5761,13 @@
         <v>20352.28</v>
       </c>
       <c r="F171" t="n">
-        <v>470</v>
+        <v>1077</v>
       </c>
       <c r="G171" t="n">
         <v>-29.57581361100307</v>
       </c>
       <c r="H171" t="n">
-        <v>-30.98384728340675</v>
+        <v>-31.70577045022194</v>
       </c>
     </row>
     <row r="172">
@@ -5793,13 +5793,13 @@
         <v>1112.6</v>
       </c>
       <c r="F172" t="n">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G172" t="n">
         <v>28.5351201478743</v>
       </c>
       <c r="H172" t="n">
-        <v>75</v>
+        <v>42.10526315789473</v>
       </c>
     </row>
     <row r="173">
@@ -5825,7 +5825,7 @@
         <v>3563</v>
       </c>
       <c r="F173" t="n">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
@@ -5853,13 +5853,13 @@
         <v>73.93000000000001</v>
       </c>
       <c r="F174" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G174" t="n">
         <v>48.00800800800802</v>
       </c>
       <c r="H174" t="n">
-        <v>200</v>
+        <v>39.99999999999999</v>
       </c>
     </row>
     <row r="175">
@@ -5885,13 +5885,13 @@
         <v>600.48</v>
       </c>
       <c r="F175" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G175" t="n">
         <v>-37.53458857796734</v>
       </c>
       <c r="H175" t="n">
-        <v>-23.07692307692307</v>
+        <v>-30.50847457627118</v>
       </c>
     </row>
     <row r="176">
@@ -5917,13 +5917,13 @@
         <v>12326.59</v>
       </c>
       <c r="F176" t="n">
-        <v>236</v>
+        <v>494</v>
       </c>
       <c r="G176" t="n">
         <v>-25.07274452463345</v>
       </c>
       <c r="H176" t="n">
-        <v>-27.60736196319018</v>
+        <v>-30.52039381153305</v>
       </c>
     </row>
     <row r="177">
@@ -5949,13 +5949,13 @@
         <v>1083.77</v>
       </c>
       <c r="F177" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="G177" t="n">
         <v>204.0454481694487</v>
       </c>
       <c r="H177" t="n">
-        <v>225</v>
+        <v>233.3333333333333</v>
       </c>
     </row>
     <row r="178">
@@ -5981,13 +5981,13 @@
         <v>942.3099999999999</v>
       </c>
       <c r="F178" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G178" t="n">
         <v>-26.58564138522068</v>
       </c>
       <c r="H178" t="n">
-        <v>-35.71428571428571</v>
+        <v>-33.33333333333334</v>
       </c>
     </row>
     <row r="179">
@@ -6013,7 +6013,7 @@
         <v>39.96</v>
       </c>
       <c r="F179" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -6045,13 +6045,13 @@
         <v>69.7</v>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G180" t="n">
         <v>-24.55893494966989</v>
       </c>
       <c r="H180" t="n">
-        <v>-66.66666666666667</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="181">
@@ -6077,13 +6077,13 @@
         <v>869.8000000000001</v>
       </c>
       <c r="F181" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G181" t="n">
         <v>-35.13698936598607</v>
       </c>
       <c r="H181" t="n">
-        <v>-35.48387096774194</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="182">
@@ -6109,7 +6109,7 @@
         <v>49.95</v>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -6173,13 +6173,13 @@
         <v>74.03</v>
       </c>
       <c r="F184" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G184" t="n">
         <v>2.905198776758411</v>
       </c>
       <c r="H184" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -6205,13 +6205,13 @@
         <v>713.95</v>
       </c>
       <c r="F185" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G185" t="n">
         <v>80.38150581101566</v>
       </c>
       <c r="H185" t="n">
-        <v>-35.29411764705882</v>
+        <v>-18.51851851851852</v>
       </c>
     </row>
     <row r="186">
@@ -6243,7 +6243,7 @@
         <v>98.76543209876544</v>
       </c>
       <c r="H186" t="n">
-        <v>250</v>
+        <v>133.3333333333333</v>
       </c>
     </row>
     <row r="187">
@@ -6269,13 +6269,13 @@
         <v>29055.44</v>
       </c>
       <c r="F187" t="n">
-        <v>755</v>
+        <v>1421</v>
       </c>
       <c r="G187" t="n">
         <v>-3.91506690128387</v>
       </c>
       <c r="H187" t="n">
-        <v>-2.706185567010311</v>
+        <v>-1.31944444444444</v>
       </c>
     </row>
     <row r="188">
@@ -6301,13 +6301,13 @@
         <v>352604.26</v>
       </c>
       <c r="F188" t="n">
-        <v>5859</v>
+        <v>12552</v>
       </c>
       <c r="G188" t="n">
         <v>6.478311647623247</v>
       </c>
       <c r="H188" t="n">
-        <v>8.23942360982819</v>
+        <v>8.515604737615634</v>
       </c>
     </row>
     <row r="189">
@@ -6333,13 +6333,13 @@
         <v>50551.03</v>
       </c>
       <c r="F189" t="n">
-        <v>774</v>
+        <v>1832</v>
       </c>
       <c r="G189" t="n">
         <v>36.68912955540027</v>
       </c>
       <c r="H189" t="n">
-        <v>19.629057187017</v>
+        <v>28.8326300984529</v>
       </c>
     </row>
     <row r="190">
@@ -6365,13 +6365,13 @@
         <v>67091.74000000001</v>
       </c>
       <c r="F190" t="n">
-        <v>1477</v>
+        <v>2973</v>
       </c>
       <c r="G190" t="n">
         <v>81.88051825250675</v>
       </c>
       <c r="H190" t="n">
-        <v>83.25062034739454</v>
+        <v>87.45271122320301</v>
       </c>
     </row>
     <row r="191">
@@ -6397,13 +6397,13 @@
         <v>400.15</v>
       </c>
       <c r="F191" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G191" t="n">
         <v>23.77049180327868</v>
       </c>
       <c r="H191" t="n">
-        <v>18.75</v>
+        <v>43.47826086956521</v>
       </c>
     </row>
     <row r="192">
@@ -6429,13 +6429,13 @@
         <v>24951.52</v>
       </c>
       <c r="F192" t="n">
-        <v>536</v>
+        <v>1074</v>
       </c>
       <c r="G192" t="n">
         <v>19.75863505551278</v>
       </c>
       <c r="H192" t="n">
-        <v>35.01259445843829</v>
+        <v>30.81607795371497</v>
       </c>
     </row>
     <row r="193">
@@ -6461,13 +6461,13 @@
         <v>956.51</v>
       </c>
       <c r="F193" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G193" t="n">
         <v>-46.68877494147809</v>
       </c>
       <c r="H193" t="n">
-        <v>-53.19148936170212</v>
+        <v>-53.92156862745099</v>
       </c>
     </row>
     <row r="194">
@@ -6493,13 +6493,13 @@
         <v>25706.06</v>
       </c>
       <c r="F194" t="n">
-        <v>331</v>
+        <v>707</v>
       </c>
       <c r="G194" t="n">
         <v>-9.011377975679558</v>
       </c>
       <c r="H194" t="n">
-        <v>-21.37767220902613</v>
+        <v>-15.83333333333333</v>
       </c>
     </row>
     <row r="195">
@@ -6525,13 +6525,13 @@
         <v>925.36</v>
       </c>
       <c r="F195" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G195" t="n">
         <v>141.1550088606275</v>
       </c>
       <c r="H195" t="n">
-        <v>106.25</v>
+        <v>123.5294117647059</v>
       </c>
     </row>
     <row r="196">
@@ -6557,7 +6557,7 @@
         <v>40.5</v>
       </c>
       <c r="F196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G196" t="n">
         <v>-81.7155756207675</v>
@@ -6589,13 +6589,13 @@
         <v>655.6999999999999</v>
       </c>
       <c r="F197" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G197" t="n">
         <v>-31.7675706050074</v>
       </c>
       <c r="H197" t="n">
-        <v>-42.85714285714286</v>
+        <v>-43.75</v>
       </c>
     </row>
     <row r="198">
@@ -6627,7 +6627,7 @@
         <v>44.994994994995</v>
       </c>
       <c r="H198" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="199">
@@ -6653,13 +6653,13 @@
         <v>15.98</v>
       </c>
       <c r="F199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G199" t="n">
         <v>299.5</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="200">
@@ -6685,7 +6685,7 @@
         <v>325.4</v>
       </c>
       <c r="F200" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
@@ -6713,13 +6713,13 @@
         <v>7670.48</v>
       </c>
       <c r="F201" t="n">
-        <v>173</v>
+        <v>397</v>
       </c>
       <c r="G201" t="n">
         <v>10.51673063844993</v>
       </c>
       <c r="H201" t="n">
-        <v>-3.888888888888886</v>
+        <v>7.880434782608692</v>
       </c>
     </row>
     <row r="202">
@@ -6745,13 +6745,13 @@
         <v>116425.65</v>
       </c>
       <c r="F202" t="n">
-        <v>2403</v>
+        <v>5768</v>
       </c>
       <c r="G202" t="n">
         <v>-0.1498794043691576</v>
       </c>
       <c r="H202" t="n">
-        <v>-4.793977812995243</v>
+        <v>-1.603548277038558</v>
       </c>
     </row>
     <row r="203">
@@ -6777,13 +6777,13 @@
         <v>33231.52</v>
       </c>
       <c r="F203" t="n">
-        <v>658</v>
+        <v>1692</v>
       </c>
       <c r="G203" t="n">
         <v>96.6700775103879</v>
       </c>
       <c r="H203" t="n">
-        <v>85.35211267605634</v>
+        <v>94.25947187141217</v>
       </c>
     </row>
     <row r="204">
@@ -6809,13 +6809,13 @@
         <v>32725.14</v>
       </c>
       <c r="F204" t="n">
-        <v>639</v>
+        <v>1678</v>
       </c>
       <c r="G204" t="n">
         <v>60.79348358021801</v>
       </c>
       <c r="H204" t="n">
-        <v>35.95744680851063</v>
+        <v>55.80315691736304</v>
       </c>
     </row>
     <row r="205">
@@ -6841,13 +6841,13 @@
         <v>1253</v>
       </c>
       <c r="F205" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="G205" t="n">
         <v>12.61909041883877</v>
       </c>
       <c r="H205" t="n">
-        <v>7.14285714285714</v>
+        <v>14.81481481481481</v>
       </c>
     </row>
     <row r="206">
@@ -6873,13 +6873,13 @@
         <v>9329.960000000001</v>
       </c>
       <c r="F206" t="n">
-        <v>167</v>
+        <v>465</v>
       </c>
       <c r="G206" t="n">
         <v>161.8568621947797</v>
       </c>
       <c r="H206" t="n">
-        <v>106.1728395061728</v>
+        <v>154.0983606557377</v>
       </c>
     </row>
     <row r="207">
@@ -6905,13 +6905,13 @@
         <v>95.92</v>
       </c>
       <c r="F207" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G207" t="n">
         <v>29.74435276613012</v>
       </c>
       <c r="H207" t="n">
-        <v>66.66666666666667</v>
+        <v>14.28571428571428</v>
       </c>
     </row>
     <row r="208">
@@ -6937,13 +6937,13 @@
         <v>522.0699999999999</v>
       </c>
       <c r="F208" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G208" t="n">
         <v>-13.05788702371438</v>
       </c>
       <c r="H208" t="n">
-        <v>-30</v>
+        <v>-36.58536585365854</v>
       </c>
     </row>
     <row r="209">
@@ -6969,13 +6969,13 @@
         <v>10998.37</v>
       </c>
       <c r="F209" t="n">
-        <v>207</v>
+        <v>470</v>
       </c>
       <c r="G209" t="n">
         <v>-10.77524278815146</v>
       </c>
       <c r="H209" t="n">
-        <v>-12.28813559322034</v>
+        <v>-4.858299595141702</v>
       </c>
     </row>
     <row r="210">
@@ -7001,13 +7001,13 @@
         <v>565.75</v>
       </c>
       <c r="F210" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G210" t="n">
         <v>-47.79796451276562</v>
       </c>
       <c r="H210" t="n">
-        <v>-34.61538461538461</v>
+        <v>-44.99999999999999</v>
       </c>
     </row>
     <row r="211">
@@ -7033,13 +7033,13 @@
         <v>735.66</v>
       </c>
       <c r="F211" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G211" t="n">
         <v>-21.93015037514193</v>
       </c>
       <c r="H211" t="n">
-        <v>-22.22222222222222</v>
+        <v>-22.72727272727273</v>
       </c>
     </row>
     <row r="212">
@@ -7065,13 +7065,13 @@
         <v>71.77</v>
       </c>
       <c r="F212" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G212" t="n">
         <v>79.60460460460459</v>
       </c>
       <c r="H212" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="213">
@@ -7097,13 +7097,13 @@
         <v>150.1</v>
       </c>
       <c r="F213" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G213" t="n">
         <v>115.351506456241</v>
       </c>
       <c r="H213" t="n">
-        <v>200</v>
+        <v>133.3333333333333</v>
       </c>
     </row>
     <row r="214">
@@ -7129,13 +7129,13 @@
         <v>1392.97</v>
       </c>
       <c r="F214" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="G214" t="n">
         <v>60.1483099563118</v>
       </c>
       <c r="H214" t="n">
-        <v>14.99999999999999</v>
+        <v>45.45454545454546</v>
       </c>
     </row>
     <row r="215">
@@ -7161,13 +7161,13 @@
         <v>19.98</v>
       </c>
       <c r="F215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G215" t="n">
         <v>-60.00000000000001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="216">
@@ -7193,13 +7193,13 @@
         <v>259</v>
       </c>
       <c r="F216" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="G216" t="n">
         <v>1380</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="217">
@@ -7225,13 +7225,13 @@
         <v>50.94</v>
       </c>
       <c r="F217" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G217" t="n">
         <v>1.981981981981962</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218">
@@ -7257,13 +7257,13 @@
         <v>30.96</v>
       </c>
       <c r="F218" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G218" t="n">
         <v>209.9099099099099</v>
       </c>
       <c r="H218" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="219">
@@ -7289,13 +7289,13 @@
         <v>276.78</v>
       </c>
       <c r="F219" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G219" t="n">
         <v>273.8754558962583</v>
       </c>
       <c r="H219" t="n">
-        <v>80</v>
+        <v>183.3333333333333</v>
       </c>
     </row>
     <row r="220">
@@ -7327,7 +7327,7 @@
         <v>-92.72358008263883</v>
       </c>
       <c r="H220" t="n">
-        <v>-54.54545454545454</v>
+        <v>-77.27272727272727</v>
       </c>
     </row>
     <row r="221">
@@ -7353,13 +7353,13 @@
         <v>104.51</v>
       </c>
       <c r="F221" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G221" t="n">
         <v>75.44065804935371</v>
       </c>
       <c r="H221" t="n">
-        <v>14.28571428571428</v>
+        <v>57.14285714285714</v>
       </c>
     </row>
     <row r="222">
@@ -7413,13 +7413,13 @@
         <v>26941.13</v>
       </c>
       <c r="F223" t="n">
-        <v>832</v>
+        <v>1509</v>
       </c>
       <c r="G223" t="n">
         <v>-7.276812879102835</v>
       </c>
       <c r="H223" t="n">
-        <v>10.19867549668874</v>
+        <v>6.192821956368744</v>
       </c>
     </row>
     <row r="224">
@@ -7445,13 +7445,13 @@
         <v>227993.01</v>
       </c>
       <c r="F224" t="n">
-        <v>4877</v>
+        <v>9477</v>
       </c>
       <c r="G224" t="n">
         <v>-35.34025652441068</v>
       </c>
       <c r="H224" t="n">
-        <v>-16.7605393411845</v>
+        <v>-24.4980879541109</v>
       </c>
     </row>
     <row r="225">
@@ -7477,13 +7477,13 @@
         <v>50176.22</v>
       </c>
       <c r="F225" t="n">
-        <v>914</v>
+        <v>2002</v>
       </c>
       <c r="G225" t="n">
         <v>-0.7414487894707555</v>
       </c>
       <c r="H225" t="n">
-        <v>18.08785529715762</v>
+        <v>9.279475982532759</v>
       </c>
     </row>
     <row r="226">
@@ -7509,13 +7509,13 @@
         <v>73559.03</v>
       </c>
       <c r="F226" t="n">
-        <v>1808</v>
+        <v>3512</v>
       </c>
       <c r="G226" t="n">
         <v>9.639472757749301</v>
       </c>
       <c r="H226" t="n">
-        <v>22.41029113067028</v>
+        <v>18.12983518331652</v>
       </c>
     </row>
     <row r="227">
@@ -7541,13 +7541,13 @@
         <v>363.11</v>
       </c>
       <c r="F227" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G227" t="n">
         <v>-9.256528801699361</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>6.060606060606055</v>
       </c>
     </row>
     <row r="228">
@@ -7573,13 +7573,13 @@
         <v>43298.45</v>
       </c>
       <c r="F228" t="n">
-        <v>986</v>
+        <v>1992</v>
       </c>
       <c r="G228" t="n">
         <v>73.53030997710759</v>
       </c>
       <c r="H228" t="n">
-        <v>83.95522388059702</v>
+        <v>85.47486033519553</v>
       </c>
     </row>
     <row r="229">
@@ -7605,13 +7605,13 @@
         <v>949.4300000000001</v>
       </c>
       <c r="F229" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="G229" t="n">
         <v>-0.7401909023428854</v>
       </c>
       <c r="H229" t="n">
-        <v>4.545454545454541</v>
+        <v>2.127659574468077</v>
       </c>
     </row>
     <row r="230">
@@ -7637,13 +7637,13 @@
         <v>15477.27</v>
       </c>
       <c r="F230" t="n">
-        <v>258</v>
+        <v>496</v>
       </c>
       <c r="G230" t="n">
         <v>-39.79135659062494</v>
       </c>
       <c r="H230" t="n">
-        <v>-22.05438066465257</v>
+        <v>-29.84441301272984</v>
       </c>
     </row>
     <row r="231">
@@ -7669,13 +7669,13 @@
         <v>1833.25</v>
       </c>
       <c r="F231" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G231" t="n">
         <v>98.11208610702862</v>
       </c>
       <c r="H231" t="n">
-        <v>109.0909090909091</v>
+        <v>101.3157894736842</v>
       </c>
     </row>
     <row r="232">
@@ -7701,13 +7701,13 @@
         <v>554</v>
       </c>
       <c r="F232" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G232" t="n">
         <v>1267.901234567901</v>
       </c>
       <c r="H232" t="n">
-        <v>1000</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="233">
@@ -7733,13 +7733,13 @@
         <v>322.61</v>
       </c>
       <c r="F233" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G233" t="n">
         <v>-50.79914595089217</v>
       </c>
       <c r="H233" t="n">
-        <v>-33.33333333333334</v>
+        <v>-40.74074074074075</v>
       </c>
     </row>
     <row r="234">
@@ -7803,7 +7803,7 @@
         <v>-50</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="236">
@@ -7829,13 +7829,13 @@
         <v>573.84</v>
       </c>
       <c r="F236" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G236" t="n">
         <v>76.34910878918258</v>
       </c>
       <c r="H236" t="n">
-        <v>157.1428571428572</v>
+        <v>100</v>
       </c>
     </row>
     <row r="237">
@@ -7861,13 +7861,13 @@
         <v>9413.620000000001</v>
       </c>
       <c r="F237" t="n">
-        <v>229</v>
+        <v>513</v>
       </c>
       <c r="G237" t="n">
         <v>22.72530532639419</v>
       </c>
       <c r="H237" t="n">
-        <v>32.3699421965318</v>
+        <v>29.2191435768262</v>
       </c>
     </row>
     <row r="238">
@@ -7893,13 +7893,13 @@
         <v>122288.48</v>
       </c>
       <c r="F238" t="n">
-        <v>2763</v>
+        <v>6586</v>
       </c>
       <c r="G238" t="n">
         <v>5.035685864755735</v>
       </c>
       <c r="H238" t="n">
-        <v>14.98127340823969</v>
+        <v>14.18169209431346</v>
       </c>
     </row>
     <row r="239">
@@ -7925,13 +7925,13 @@
         <v>62402.13</v>
       </c>
       <c r="F239" t="n">
-        <v>1327</v>
+        <v>3522</v>
       </c>
       <c r="G239" t="n">
         <v>87.77994506420409</v>
       </c>
       <c r="H239" t="n">
-        <v>101.6717325227964</v>
+        <v>108.1560283687943</v>
       </c>
     </row>
     <row r="240">
@@ -7957,13 +7957,13 @@
         <v>44817.84</v>
       </c>
       <c r="F240" t="n">
-        <v>927</v>
+        <v>2421</v>
       </c>
       <c r="G240" t="n">
         <v>36.95232472649468</v>
       </c>
       <c r="H240" t="n">
-        <v>45.07042253521127</v>
+        <v>44.27890345649583</v>
       </c>
     </row>
     <row r="241">
@@ -7989,13 +7989,13 @@
         <v>4283.9</v>
       </c>
       <c r="F241" t="n">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="G241" t="n">
         <v>241.8914604948124</v>
       </c>
       <c r="H241" t="n">
-        <v>180</v>
+        <v>216.1290322580645</v>
       </c>
     </row>
     <row r="242">
@@ -8021,13 +8021,13 @@
         <v>8638</v>
       </c>
       <c r="F242" t="n">
-        <v>204</v>
+        <v>480</v>
       </c>
       <c r="G242" t="n">
         <v>-7.416537691479929</v>
       </c>
       <c r="H242" t="n">
-        <v>22.1556886227545</v>
+        <v>3.2258064516129</v>
       </c>
     </row>
     <row r="243">
@@ -8087,7 +8087,7 @@
         <v>-62.5</v>
       </c>
       <c r="H244" t="n">
-        <v>-40</v>
+        <v>-62.5</v>
       </c>
     </row>
     <row r="245">
@@ -8113,13 +8113,13 @@
         <v>568.61</v>
       </c>
       <c r="F245" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G245" t="n">
         <v>8.914513379431899</v>
       </c>
       <c r="H245" t="n">
-        <v>42.85714285714286</v>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="246">
@@ -8145,13 +8145,13 @@
         <v>10223.84</v>
       </c>
       <c r="F246" t="n">
-        <v>232</v>
+        <v>519</v>
       </c>
       <c r="G246" t="n">
         <v>-7.042225347937925</v>
       </c>
       <c r="H246" t="n">
-        <v>12.07729468599035</v>
+        <v>10.42553191489361</v>
       </c>
     </row>
     <row r="247">
@@ -8177,13 +8177,13 @@
         <v>1740.04</v>
       </c>
       <c r="F247" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="G247" t="n">
         <v>207.5634114007954</v>
       </c>
       <c r="H247" t="n">
-        <v>111.7647058823529</v>
+        <v>142.4242424242424</v>
       </c>
     </row>
     <row r="248">
@@ -8209,13 +8209,13 @@
         <v>3077.81</v>
       </c>
       <c r="F248" t="n">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="G248" t="n">
         <v>318.3739771089906</v>
       </c>
       <c r="H248" t="n">
-        <v>257.1428571428572</v>
+        <v>300</v>
       </c>
     </row>
     <row r="249">
@@ -8241,13 +8241,13 @@
         <v>251.62</v>
       </c>
       <c r="F249" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G249" t="n">
         <v>250.592169430124</v>
       </c>
       <c r="H249" t="n">
-        <v>133.3333333333333</v>
+        <v>160</v>
       </c>
     </row>
     <row r="250">
@@ -8273,13 +8273,13 @@
         <v>608.5</v>
       </c>
       <c r="F250" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G250" t="n">
         <v>305.3964023984011</v>
       </c>
       <c r="H250" t="n">
-        <v>233.3333333333333</v>
+        <v>285.7142857142857</v>
       </c>
     </row>
     <row r="251">
@@ -8305,13 +8305,13 @@
         <v>5100.38</v>
       </c>
       <c r="F251" t="n">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="G251" t="n">
         <v>266.1514605483248</v>
       </c>
       <c r="H251" t="n">
-        <v>169.5652173913043</v>
+        <v>208.3333333333333</v>
       </c>
     </row>
     <row r="252">
@@ -8343,7 +8343,7 @@
         <v>-50</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="253">
@@ -8369,13 +8369,13 @@
         <v>98.79000000000001</v>
       </c>
       <c r="F253" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G253" t="n">
         <v>-61.85714285714285</v>
       </c>
       <c r="H253" t="n">
-        <v>100</v>
+        <v>-62.85714285714285</v>
       </c>
     </row>
     <row r="254">
@@ -8401,7 +8401,7 @@
         <v>185</v>
       </c>
       <c r="F254" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G254" t="inlineStr"/>
       <c r="H254" t="inlineStr"/>
@@ -8429,7 +8429,7 @@
         <v>703</v>
       </c>
       <c r="F255" t="n">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr"/>
@@ -8463,7 +8463,7 @@
         <v>-41.1660777385159</v>
       </c>
       <c r="H256" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="257">
@@ -8495,7 +8495,7 @@
         <v>-67.73255813953489</v>
       </c>
       <c r="H257" t="n">
-        <v>-66.66666666666667</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="258">
@@ -8521,13 +8521,13 @@
         <v>153.85</v>
       </c>
       <c r="F258" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G258" t="n">
         <v>-44.41433629597514</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>-35.29411764705882</v>
       </c>
     </row>
     <row r="259">
@@ -8591,7 +8591,7 @@
         <v>-90.44110611424743</v>
       </c>
       <c r="H260" t="n">
-        <v>-87.5</v>
+        <v>-90.90909090909091</v>
       </c>
     </row>
     <row r="261">
@@ -8617,13 +8617,13 @@
         <v>432.5</v>
       </c>
       <c r="F261" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G261" t="n">
         <v>3507.172643869892</v>
       </c>
       <c r="H261" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="262">
@@ -8649,13 +8649,13 @@
         <v>34592.8</v>
       </c>
       <c r="F262" t="n">
-        <v>953</v>
+        <v>1692</v>
       </c>
       <c r="G262" t="n">
         <v>28.40144418589718</v>
       </c>
       <c r="H262" t="n">
-        <v>14.54326923076923</v>
+        <v>12.12723658051691</v>
       </c>
     </row>
     <row r="263">
@@ -8681,13 +8681,13 @@
         <v>299776.92</v>
       </c>
       <c r="F263" t="n">
-        <v>6059</v>
+        <v>11841</v>
       </c>
       <c r="G263" t="n">
         <v>31.48513632062666</v>
       </c>
       <c r="H263" t="n">
-        <v>24.23621078531884</v>
+        <v>24.94460272238051</v>
       </c>
     </row>
     <row r="264">
@@ -8713,13 +8713,13 @@
         <v>63386.9</v>
       </c>
       <c r="F264" t="n">
-        <v>1007</v>
+        <v>2130</v>
       </c>
       <c r="G264" t="n">
         <v>26.32856759636337</v>
       </c>
       <c r="H264" t="n">
-        <v>10.17505470459519</v>
+        <v>6.393606393606399</v>
       </c>
     </row>
     <row r="265">
@@ -8745,13 +8745,13 @@
         <v>52521.31</v>
       </c>
       <c r="F265" t="n">
-        <v>1236</v>
+        <v>2245</v>
       </c>
       <c r="G265" t="n">
         <v>-28.59977898022853</v>
       </c>
       <c r="H265" t="n">
-        <v>-31.63716814159292</v>
+        <v>-36.07630979498862</v>
       </c>
     </row>
     <row r="266">
@@ -8777,13 +8777,13 @@
         <v>66.18000000000001</v>
       </c>
       <c r="F266" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G266" t="n">
         <v>-81.7741180358569</v>
       </c>
       <c r="H266" t="n">
-        <v>-68.42105263157895</v>
+        <v>-77.14285714285715</v>
       </c>
     </row>
     <row r="267">
@@ -8809,13 +8809,13 @@
         <v>20806.05</v>
       </c>
       <c r="F267" t="n">
-        <v>467</v>
+        <v>890</v>
       </c>
       <c r="G267" t="n">
         <v>-51.94735608318543</v>
       </c>
       <c r="H267" t="n">
-        <v>-52.6369168356998</v>
+        <v>-55.32128514056225</v>
       </c>
     </row>
     <row r="268">
@@ -8869,13 +8869,13 @@
         <v>778.8</v>
       </c>
       <c r="F269" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G269" t="n">
         <v>-17.97183573301877</v>
       </c>
       <c r="H269" t="n">
-        <v>-4.347826086956519</v>
+        <v>-10.41666666666666</v>
       </c>
     </row>
     <row r="270">
@@ -8901,13 +8901,13 @@
         <v>18695.4</v>
       </c>
       <c r="F270" t="n">
-        <v>371</v>
+        <v>694</v>
       </c>
       <c r="G270" t="n">
         <v>20.79262040398597</v>
       </c>
       <c r="H270" t="n">
-        <v>43.79844961240309</v>
+        <v>39.91935483870967</v>
       </c>
     </row>
     <row r="271">
@@ -8933,13 +8933,13 @@
         <v>1935.03</v>
       </c>
       <c r="F271" t="n">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="G271" t="n">
         <v>5.551888722214637</v>
       </c>
       <c r="H271" t="n">
-        <v>-6.521739130434778</v>
+        <v>-0.6535947712418277</v>
       </c>
     </row>
     <row r="272">
@@ -8965,13 +8965,13 @@
         <v>316.66</v>
       </c>
       <c r="F272" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G272" t="n">
         <v>-42.84115523465704</v>
       </c>
       <c r="H272" t="n">
-        <v>-18.18181818181818</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="273">
@@ -8997,13 +8997,13 @@
         <v>425.21</v>
       </c>
       <c r="F273" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G273" t="n">
         <v>31.80310591736153</v>
       </c>
       <c r="H273" t="n">
-        <v>25</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="274">
@@ -9029,13 +9029,13 @@
         <v>39.95</v>
       </c>
       <c r="F274" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G274" t="n">
         <v>400</v>
       </c>
       <c r="H274" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="275">
@@ -9061,13 +9061,13 @@
         <v>69.92</v>
       </c>
       <c r="F275" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G275" t="n">
         <v>125.7668711656442</v>
       </c>
       <c r="H275" t="n">
-        <v>133.3333333333333</v>
+        <v>166.6666666666667</v>
       </c>
     </row>
     <row r="276">
@@ -9093,13 +9093,13 @@
         <v>1016.84</v>
       </c>
       <c r="F276" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G276" t="n">
         <v>77.19921929457686</v>
       </c>
       <c r="H276" t="n">
-        <v>-27.77777777777778</v>
+        <v>41.1764705882353</v>
       </c>
     </row>
     <row r="277">
@@ -9125,13 +9125,13 @@
         <v>8099.72</v>
       </c>
       <c r="F277" t="n">
-        <v>230</v>
+        <v>456</v>
       </c>
       <c r="G277" t="n">
         <v>-13.95743614040082</v>
       </c>
       <c r="H277" t="n">
-        <v>0.4366812227074135</v>
+        <v>-11.11111111111112</v>
       </c>
     </row>
     <row r="278">
@@ -9157,13 +9157,13 @@
         <v>117303.66</v>
       </c>
       <c r="F278" t="n">
-        <v>2996</v>
+        <v>6288</v>
       </c>
       <c r="G278" t="n">
         <v>-4.076279302841934</v>
       </c>
       <c r="H278" t="n">
-        <v>8.432862830256971</v>
+        <v>-4.524749468569689</v>
       </c>
     </row>
     <row r="279">
@@ -9189,13 +9189,13 @@
         <v>21601.56</v>
       </c>
       <c r="F279" t="n">
-        <v>499</v>
+        <v>1177</v>
       </c>
       <c r="G279" t="n">
         <v>-65.38329701245775</v>
       </c>
       <c r="H279" t="n">
-        <v>-62.39638281838734</v>
+        <v>-66.58148779102783</v>
       </c>
     </row>
     <row r="280">
@@ -9221,13 +9221,13 @@
         <v>18787.76</v>
       </c>
       <c r="F280" t="n">
-        <v>461</v>
+        <v>1001</v>
       </c>
       <c r="G280" t="n">
         <v>-58.07972896507283</v>
       </c>
       <c r="H280" t="n">
-        <v>-50.26968716289104</v>
+        <v>-58.65344898802147</v>
       </c>
     </row>
     <row r="281">
@@ -9253,13 +9253,13 @@
         <v>1972.5</v>
       </c>
       <c r="F281" t="n">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="G281" t="n">
         <v>-53.95550783164873</v>
       </c>
       <c r="H281" t="n">
-        <v>-34.52380952380953</v>
+        <v>-47.44897959183674</v>
       </c>
     </row>
     <row r="282">
@@ -9285,13 +9285,13 @@
         <v>6719.3</v>
       </c>
       <c r="F282" t="n">
-        <v>150</v>
+        <v>326</v>
       </c>
       <c r="G282" t="n">
         <v>-22.21231766612641</v>
       </c>
       <c r="H282" t="n">
-        <v>-26.47058823529411</v>
+        <v>-32.08333333333333</v>
       </c>
     </row>
     <row r="283">
@@ -9317,13 +9317,13 @@
         <v>1978.1</v>
       </c>
       <c r="F283" t="n">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="G283" t="n">
         <v>247.8834350433513</v>
       </c>
       <c r="H283" t="n">
-        <v>250</v>
+        <v>305.8823529411765</v>
       </c>
     </row>
     <row r="284">
@@ -9349,13 +9349,13 @@
         <v>17341.15</v>
       </c>
       <c r="F284" t="n">
-        <v>448</v>
+        <v>897</v>
       </c>
       <c r="G284" t="n">
         <v>69.6148413903191</v>
       </c>
       <c r="H284" t="n">
-        <v>93.10344827586208</v>
+        <v>72.83236994219652</v>
       </c>
     </row>
     <row r="285">
@@ -9381,13 +9381,13 @@
         <v>2416.98</v>
       </c>
       <c r="F285" t="n">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="G285" t="n">
         <v>38.90370336314108</v>
       </c>
       <c r="H285" t="n">
-        <v>97.22222222222223</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="286">
@@ -9413,13 +9413,13 @@
         <v>3974.55</v>
       </c>
       <c r="F286" t="n">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="G286" t="n">
         <v>29.13565164841236</v>
       </c>
       <c r="H286" t="n">
-        <v>112</v>
+        <v>61.76470588235294</v>
       </c>
     </row>
     <row r="287">
@@ -9445,13 +9445,13 @@
         <v>585.02</v>
       </c>
       <c r="F287" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="G287" t="n">
         <v>132.5013909864081</v>
       </c>
       <c r="H287" t="n">
-        <v>257.1428571428572</v>
+        <v>300</v>
       </c>
     </row>
     <row r="288">
@@ -9477,13 +9477,13 @@
         <v>362.43</v>
       </c>
       <c r="F288" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G288" t="n">
         <v>-40.43878389482334</v>
       </c>
       <c r="H288" t="n">
-        <v>-20</v>
+        <v>-44.44444444444444</v>
       </c>
     </row>
     <row r="289">
@@ -9509,13 +9509,13 @@
         <v>3284.08</v>
       </c>
       <c r="F289" t="n">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="G289" t="n">
         <v>-35.61107211619527</v>
       </c>
       <c r="H289" t="n">
-        <v>-6.451612903225811</v>
+        <v>-21.62162162162162</v>
       </c>
     </row>
     <row r="290">
@@ -9541,13 +9541,13 @@
         <v>419.37</v>
       </c>
       <c r="F290" t="n">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="G290" t="n">
         <v>324.506529000911</v>
       </c>
       <c r="H290" t="n">
-        <v>100</v>
+        <v>338.4615384615385</v>
       </c>
     </row>
     <row r="291">
@@ -9579,7 +9579,7 @@
         <v>-96</v>
       </c>
       <c r="H291" t="n">
-        <v>-50</v>
+        <v>-96</v>
       </c>
     </row>
     <row r="292">
@@ -9605,13 +9605,13 @@
         <v>14.8</v>
       </c>
       <c r="F292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G292" t="n">
         <v>-97.89473684210527</v>
       </c>
       <c r="H292" t="n">
-        <v>-75</v>
+        <v>-97.89473684210527</v>
       </c>
     </row>
     <row r="293">
@@ -9637,13 +9637,13 @@
         <v>29.97</v>
       </c>
       <c r="F293" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G293" t="n">
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>-33.33333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -9701,13 +9701,13 @@
         <v>182.99</v>
       </c>
       <c r="F295" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G295" t="n">
         <v>18.94052648683782</v>
       </c>
       <c r="H295" t="n">
-        <v>11.11111111111112</v>
+        <v>18.18181818181819</v>
       </c>
     </row>
     <row r="296">
@@ -9733,13 +9733,13 @@
         <v>153.21</v>
       </c>
       <c r="F296" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G296" t="n">
         <v>32.18013976360972</v>
       </c>
       <c r="H296" t="n">
-        <v>-36.36363636363637</v>
+        <v>-18.18181818181818</v>
       </c>
     </row>
     <row r="297">
@@ -9797,13 +9797,13 @@
         <v>1763.47</v>
       </c>
       <c r="F298" t="n">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="G298" t="n">
         <v>307.7387283236994</v>
       </c>
       <c r="H298" t="n">
-        <v>520</v>
+        <v>353.3333333333333</v>
       </c>
     </row>
     <row r="299">
@@ -9829,13 +9829,13 @@
         <v>43319.91</v>
       </c>
       <c r="F299" t="n">
-        <v>1094</v>
+        <v>2102</v>
       </c>
       <c r="G299" t="n">
         <v>25.22811105201082</v>
       </c>
       <c r="H299" t="n">
-        <v>14.79538300104932</v>
+        <v>24.23167848699763</v>
       </c>
     </row>
     <row r="300">
@@ -9861,13 +9861,13 @@
         <v>236610.13</v>
       </c>
       <c r="F300" t="n">
-        <v>4565</v>
+        <v>9069</v>
       </c>
       <c r="G300" t="n">
         <v>-21.07126525951364</v>
       </c>
       <c r="H300" t="n">
-        <v>-24.65753424657534</v>
+        <v>-23.41018495059539</v>
       </c>
     </row>
     <row r="301">
@@ -9893,13 +9893,13 @@
         <v>47297.52</v>
       </c>
       <c r="F301" t="n">
-        <v>755</v>
+        <v>1597</v>
       </c>
       <c r="G301" t="n">
         <v>-25.38281569220139</v>
       </c>
       <c r="H301" t="n">
-        <v>-25.02482621648461</v>
+        <v>-25.02347417840376</v>
       </c>
     </row>
     <row r="302">
@@ -9925,13 +9925,13 @@
         <v>49097.5</v>
       </c>
       <c r="F302" t="n">
-        <v>1112</v>
+        <v>2080</v>
       </c>
       <c r="G302" t="n">
         <v>-6.518896805886976</v>
       </c>
       <c r="H302" t="n">
-        <v>-10.03236245954693</v>
+        <v>-7.349665924276172</v>
       </c>
     </row>
     <row r="303">
@@ -9957,13 +9957,13 @@
         <v>322.05</v>
       </c>
       <c r="F303" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G303" t="n">
         <v>386.6273798730734</v>
       </c>
       <c r="H303" t="n">
-        <v>250</v>
+        <v>325</v>
       </c>
     </row>
     <row r="304">
@@ -9989,13 +9989,13 @@
         <v>14107.37</v>
       </c>
       <c r="F304" t="n">
-        <v>271</v>
+        <v>553</v>
       </c>
       <c r="G304" t="n">
         <v>-32.19582765589816</v>
       </c>
       <c r="H304" t="n">
-        <v>-41.97002141327623</v>
+        <v>-37.86516853932584</v>
       </c>
     </row>
     <row r="305">
@@ -10021,13 +10021,13 @@
         <v>60.5</v>
       </c>
       <c r="F305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G305" t="n">
         <v>1152.587991718427</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="306">
@@ -10053,13 +10053,13 @@
         <v>3461.89</v>
       </c>
       <c r="F306" t="n">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="G306" t="n">
         <v>344.5159219311762</v>
       </c>
       <c r="H306" t="n">
-        <v>213.6363636363636</v>
+        <v>306.9767441860465</v>
       </c>
     </row>
     <row r="307">
@@ -10085,13 +10085,13 @@
         <v>32433.61</v>
       </c>
       <c r="F307" t="n">
-        <v>558</v>
+        <v>1242</v>
       </c>
       <c r="G307" t="n">
         <v>73.48444002267938</v>
       </c>
       <c r="H307" t="n">
-        <v>50.40431266846361</v>
+        <v>78.96253602305477</v>
       </c>
     </row>
     <row r="308">
@@ -10117,13 +10117,13 @@
         <v>2659.49</v>
       </c>
       <c r="F308" t="n">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="G308" t="n">
         <v>37.43921282874167</v>
       </c>
       <c r="H308" t="n">
-        <v>-9.302325581395355</v>
+        <v>-0.6578947368421018</v>
       </c>
     </row>
     <row r="309">
@@ -10149,13 +10149,13 @@
         <v>2171.31</v>
       </c>
       <c r="F309" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G309" t="n">
         <v>585.6912777111097</v>
       </c>
       <c r="H309" t="n">
-        <v>77.77777777777777</v>
+        <v>141.1764705882353</v>
       </c>
     </row>
     <row r="310">
@@ -10181,13 +10181,13 @@
         <v>643.09</v>
       </c>
       <c r="F310" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G310" t="n">
         <v>51.24056348627737</v>
       </c>
       <c r="H310" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="311">
@@ -10219,7 +10219,7 @@
         <v>-89.43077803203661</v>
       </c>
       <c r="H311" t="n">
-        <v>-85.71428571428572</v>
+        <v>-87.5</v>
       </c>
     </row>
     <row r="312">
@@ -10245,13 +10245,13 @@
         <v>1347.4</v>
       </c>
       <c r="F312" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="G312" t="n">
         <v>32.50855591833523</v>
       </c>
       <c r="H312" t="n">
-        <v>146.1538461538462</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="313">
@@ -10277,13 +10277,13 @@
         <v>11923.59</v>
       </c>
       <c r="F313" t="n">
-        <v>263</v>
+        <v>619</v>
       </c>
       <c r="G313" t="n">
         <v>47.20990355222157</v>
       </c>
       <c r="H313" t="n">
-        <v>14.34782608695653</v>
+        <v>35.74561403508771</v>
       </c>
     </row>
     <row r="314">
@@ -10309,13 +10309,13 @@
         <v>130116.38</v>
       </c>
       <c r="F314" t="n">
-        <v>3286</v>
+        <v>7044</v>
       </c>
       <c r="G314" t="n">
         <v>10.92269414270621</v>
       </c>
       <c r="H314" t="n">
-        <v>9.679572763684918</v>
+        <v>12.02290076335877</v>
       </c>
     </row>
     <row r="315">
@@ -10341,13 +10341,13 @@
         <v>17916.29</v>
       </c>
       <c r="F315" t="n">
-        <v>446</v>
+        <v>1000</v>
       </c>
       <c r="G315" t="n">
         <v>-17.06020305940867</v>
       </c>
       <c r="H315" t="n">
-        <v>-10.62124248496994</v>
+        <v>-15.03823279524214</v>
       </c>
     </row>
     <row r="316">
@@ -10373,13 +10373,13 @@
         <v>17766.87</v>
       </c>
       <c r="F316" t="n">
-        <v>439</v>
+        <v>1004</v>
       </c>
       <c r="G316" t="n">
         <v>-5.433803710500895</v>
       </c>
       <c r="H316" t="n">
-        <v>-4.772234273318876</v>
+        <v>0.2997002997003007</v>
       </c>
     </row>
     <row r="317">
@@ -10405,13 +10405,13 @@
         <v>2026</v>
       </c>
       <c r="F317" t="n">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="G317" t="n">
         <v>2.712294043092522</v>
       </c>
       <c r="H317" t="n">
-        <v>-14.54545454545455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -10437,13 +10437,13 @@
         <v>8189.45</v>
       </c>
       <c r="F318" t="n">
-        <v>179</v>
+        <v>415</v>
       </c>
       <c r="G318" t="n">
         <v>21.87951125861325</v>
       </c>
       <c r="H318" t="n">
-        <v>19.33333333333334</v>
+        <v>27.30061349693251</v>
       </c>
     </row>
     <row r="319">
@@ -10469,13 +10469,13 @@
         <v>5173.95</v>
       </c>
       <c r="F319" t="n">
-        <v>144</v>
+        <v>325</v>
       </c>
       <c r="G319" t="n">
         <v>161.5615995146858</v>
       </c>
       <c r="H319" t="n">
-        <v>105.7142857142857</v>
+        <v>135.5072463768116</v>
       </c>
     </row>
     <row r="320">
@@ -10501,13 +10501,13 @@
         <v>23990.53</v>
       </c>
       <c r="F320" t="n">
-        <v>714</v>
+        <v>1486</v>
       </c>
       <c r="G320" t="n">
         <v>38.34451579047524</v>
       </c>
       <c r="H320" t="n">
-        <v>59.375</v>
+        <v>65.66332218506132</v>
       </c>
     </row>
     <row r="321">
@@ -10533,13 +10533,13 @@
         <v>4587.58</v>
       </c>
       <c r="F321" t="n">
-        <v>149</v>
+        <v>297</v>
       </c>
       <c r="G321" t="n">
         <v>89.80628718483396</v>
       </c>
       <c r="H321" t="n">
-        <v>109.8591549295775</v>
+        <v>104.8275862068965</v>
       </c>
     </row>
     <row r="322">
@@ -10565,13 +10565,13 @@
         <v>9937.66</v>
       </c>
       <c r="F322" t="n">
-        <v>237</v>
+        <v>581</v>
       </c>
       <c r="G322" t="n">
         <v>150.0323307041049</v>
       </c>
       <c r="H322" t="n">
-        <v>123.5849056603774</v>
+        <v>164.0909090909091</v>
       </c>
     </row>
     <row r="323">
@@ -10597,13 +10597,13 @@
         <v>950.89</v>
       </c>
       <c r="F323" t="n">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="G323" t="n">
         <v>62.53974223103484</v>
       </c>
       <c r="H323" t="n">
-        <v>52</v>
+        <v>78.84615384615385</v>
       </c>
     </row>
     <row r="324">
@@ -10629,13 +10629,13 @@
         <v>219</v>
       </c>
       <c r="F324" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G324" t="n">
         <v>-39.57453853157852</v>
       </c>
       <c r="H324" t="n">
-        <v>-25</v>
+        <v>-33.33333333333334</v>
       </c>
     </row>
     <row r="325">
@@ -10661,13 +10661,13 @@
         <v>1882.06</v>
       </c>
       <c r="F325" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="G325" t="n">
         <v>-42.69140824827653</v>
       </c>
       <c r="H325" t="n">
-        <v>-22.41379310344828</v>
+        <v>-31.03448275862068</v>
       </c>
     </row>
     <row r="326">
@@ -10693,13 +10693,13 @@
         <v>65.78999999999999</v>
       </c>
       <c r="F326" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G326" t="n">
         <v>558.5585585585585</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="327">
@@ -10725,13 +10725,13 @@
         <v>317.69</v>
       </c>
       <c r="F327" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G327" t="n">
         <v>-24.24589264849656</v>
       </c>
       <c r="H327" t="n">
-        <v>-25</v>
+        <v>-45.61403508771929</v>
       </c>
     </row>
     <row r="328">
@@ -10757,7 +10757,7 @@
         <v>37</v>
       </c>
       <c r="F328" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G328" t="inlineStr"/>
       <c r="H328" t="inlineStr"/>
@@ -10785,13 +10785,13 @@
         <v>97.95</v>
       </c>
       <c r="F329" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G329" t="n">
         <v>226.8268268268268</v>
       </c>
       <c r="H329" t="n">
-        <v>200</v>
+        <v>133.3333333333333</v>
       </c>
     </row>
     <row r="330">
@@ -10855,7 +10855,7 @@
         <v>-54.71883709492322</v>
       </c>
       <c r="H331" t="n">
-        <v>-30</v>
+        <v>-46.15384615384615</v>
       </c>
     </row>
     <row r="332">
@@ -10881,13 +10881,13 @@
         <v>2025.98</v>
       </c>
       <c r="F332" t="n">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="G332" t="n">
         <v>1222.354937667254</v>
       </c>
       <c r="H332" t="n">
-        <v>-42.85714285714286</v>
+        <v>2155.555555555556</v>
       </c>
     </row>
     <row r="333">
@@ -10913,13 +10913,13 @@
         <v>10027.37</v>
       </c>
       <c r="F333" t="n">
-        <v>6</v>
+        <v>1004</v>
       </c>
       <c r="G333" t="n">
         <v>33358.02469135803</v>
       </c>
       <c r="H333" t="n">
-        <v>100</v>
+        <v>33366.66666666667</v>
       </c>
     </row>
     <row r="334">
@@ -10945,13 +10945,13 @@
         <v>499.7</v>
       </c>
       <c r="F334" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G334" t="n">
         <v>-71.66382189660159</v>
       </c>
       <c r="H334" t="n">
-        <v>-38.70967741935484</v>
+        <v>-51.47058823529412</v>
       </c>
     </row>
     <row r="335">
@@ -10977,13 +10977,13 @@
         <v>14400.45</v>
       </c>
       <c r="F335" t="n">
-        <v>385</v>
+        <v>798</v>
       </c>
       <c r="G335" t="n">
         <v>-66.75789492637449</v>
       </c>
       <c r="H335" t="n">
-        <v>-64.80804387568556</v>
+        <v>-62.0361560418649</v>
       </c>
     </row>
     <row r="336">
@@ -11009,13 +11009,13 @@
         <v>78945.59</v>
       </c>
       <c r="F336" t="n">
-        <v>1871</v>
+        <v>3746</v>
       </c>
       <c r="G336" t="n">
         <v>-66.63473791253148</v>
       </c>
       <c r="H336" t="n">
-        <v>-59.01423877327492</v>
+        <v>-58.69445363325615</v>
       </c>
     </row>
     <row r="337">
@@ -11041,13 +11041,13 @@
         <v>23517.49</v>
       </c>
       <c r="F337" t="n">
-        <v>516</v>
+        <v>1132</v>
       </c>
       <c r="G337" t="n">
         <v>-50.27754097889275</v>
       </c>
       <c r="H337" t="n">
-        <v>-31.65562913907285</v>
+        <v>-29.11709455228554</v>
       </c>
     </row>
     <row r="338">
@@ -11073,13 +11073,13 @@
         <v>19012.78</v>
       </c>
       <c r="F338" t="n">
-        <v>424</v>
+        <v>982</v>
       </c>
       <c r="G338" t="n">
         <v>-61.27546209073782</v>
       </c>
       <c r="H338" t="n">
-        <v>-61.87050359712229</v>
+        <v>-52.78846153846154</v>
       </c>
     </row>
     <row r="339">
@@ -11105,13 +11105,13 @@
         <v>572.21</v>
       </c>
       <c r="F339" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="G339" t="n">
         <v>77.6773792889303</v>
       </c>
       <c r="H339" t="n">
-        <v>-28.57142857142857</v>
+        <v>41.1764705882353</v>
       </c>
     </row>
     <row r="340">
@@ -11137,13 +11137,13 @@
         <v>11285.16</v>
       </c>
       <c r="F340" t="n">
-        <v>247</v>
+        <v>526</v>
       </c>
       <c r="G340" t="n">
         <v>-20.00521713118746</v>
       </c>
       <c r="H340" t="n">
-        <v>-8.856088560885611</v>
+        <v>-4.88245931283906</v>
       </c>
     </row>
     <row r="341">
@@ -11169,7 +11169,7 @@
         <v>141.04</v>
       </c>
       <c r="F341" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G341" t="inlineStr"/>
       <c r="H341" t="inlineStr"/>
@@ -11197,13 +11197,13 @@
         <v>836.62</v>
       </c>
       <c r="F342" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G342" t="n">
         <v>-75.83343202701414</v>
       </c>
       <c r="H342" t="n">
-        <v>-76.81159420289855</v>
+        <v>-76.57142857142857</v>
       </c>
     </row>
     <row r="343">
@@ -11229,13 +11229,13 @@
         <v>15624.71</v>
       </c>
       <c r="F343" t="n">
-        <v>298</v>
+        <v>627</v>
       </c>
       <c r="G343" t="n">
         <v>-51.82555996696021</v>
       </c>
       <c r="H343" t="n">
-        <v>-46.59498207885304</v>
+        <v>-49.51690821256038</v>
       </c>
     </row>
     <row r="344">
@@ -11261,13 +11261,13 @@
         <v>1299.58</v>
       </c>
       <c r="F344" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G344" t="n">
         <v>-51.13424002346314</v>
       </c>
       <c r="H344" t="n">
-        <v>-44.44444444444444</v>
+        <v>-47.01986754966887</v>
       </c>
     </row>
     <row r="345">
@@ -11293,13 +11293,13 @@
         <v>220.04</v>
       </c>
       <c r="F345" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G345" t="n">
         <v>-89.86602557902833</v>
       </c>
       <c r="H345" t="n">
-        <v>-56.25</v>
+        <v>-65.85365853658536</v>
       </c>
     </row>
     <row r="346">
@@ -11325,13 +11325,13 @@
         <v>488</v>
       </c>
       <c r="F346" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G346" t="n">
         <v>-24.11637562394067</v>
       </c>
       <c r="H346" t="n">
-        <v>-43.99999999999999</v>
+        <v>-38.63636363636363</v>
       </c>
     </row>
     <row r="347">
@@ -11389,13 +11389,13 @@
         <v>261.8</v>
       </c>
       <c r="F348" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G348" t="n">
         <v>-80.56998664093811</v>
       </c>
       <c r="H348" t="n">
-        <v>-71.875</v>
+        <v>-78.66666666666666</v>
       </c>
     </row>
     <row r="349">
@@ -11421,13 +11421,13 @@
         <v>2429.15</v>
       </c>
       <c r="F349" t="n">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="G349" t="n">
         <v>-79.62736055164595</v>
       </c>
       <c r="H349" t="n">
-        <v>-70.72243346007605</v>
+        <v>-74.31340872374798</v>
       </c>
     </row>
     <row r="350">
@@ -11453,13 +11453,13 @@
         <v>43474.1</v>
       </c>
       <c r="F350" t="n">
-        <v>1221</v>
+        <v>2583</v>
       </c>
       <c r="G350" t="n">
         <v>-66.58829580103597</v>
       </c>
       <c r="H350" t="n">
-        <v>-62.84236153377967</v>
+        <v>-63.3304940374787</v>
       </c>
     </row>
     <row r="351">
@@ -11485,13 +11485,13 @@
         <v>8082.38</v>
       </c>
       <c r="F351" t="n">
-        <v>215</v>
+        <v>471</v>
       </c>
       <c r="G351" t="n">
         <v>-54.88809346131369</v>
       </c>
       <c r="H351" t="n">
-        <v>-51.79372197309418</v>
+        <v>-52.90000000000001</v>
       </c>
     </row>
     <row r="352">
@@ -11517,13 +11517,13 @@
         <v>6340.570000000001</v>
       </c>
       <c r="F352" t="n">
-        <v>195</v>
+        <v>430</v>
       </c>
       <c r="G352" t="n">
         <v>-64.31239717519179</v>
       </c>
       <c r="H352" t="n">
-        <v>-55.58086560364465</v>
+        <v>-57.17131474103585</v>
       </c>
     </row>
     <row r="353">
@@ -11549,13 +11549,13 @@
         <v>959.1</v>
       </c>
       <c r="F353" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="G353" t="n">
         <v>-52.6604146100691</v>
       </c>
       <c r="H353" t="n">
-        <v>-31.91489361702128</v>
+        <v>-37.86407766990292</v>
       </c>
     </row>
     <row r="354">
@@ -11581,13 +11581,13 @@
         <v>2637.6</v>
       </c>
       <c r="F354" t="n">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="G354" t="n">
         <v>-67.79270891207591</v>
       </c>
       <c r="H354" t="n">
-        <v>-58.10055865921788</v>
+        <v>-65.06024096385542</v>
       </c>
     </row>
     <row r="355">
@@ -11613,13 +11613,13 @@
         <v>3988.92</v>
       </c>
       <c r="F355" t="n">
-        <v>148</v>
+        <v>278</v>
       </c>
       <c r="G355" t="n">
         <v>-22.90377757805932</v>
       </c>
       <c r="H355" t="n">
-        <v>2.777777777777768</v>
+        <v>-14.46153846153846</v>
       </c>
     </row>
     <row r="356">
@@ -11645,13 +11645,13 @@
         <v>25504.87</v>
       </c>
       <c r="F356" t="n">
-        <v>548</v>
+        <v>2105</v>
       </c>
       <c r="G356" t="n">
         <v>6.312240704978178</v>
       </c>
       <c r="H356" t="n">
-        <v>-23.24929971988795</v>
+        <v>41.65545087483176</v>
       </c>
     </row>
     <row r="357">
@@ -11677,13 +11677,13 @@
         <v>3516.48</v>
       </c>
       <c r="F357" t="n">
-        <v>107</v>
+        <v>224</v>
       </c>
       <c r="G357" t="n">
         <v>-23.34782172735952</v>
       </c>
       <c r="H357" t="n">
-        <v>-28.18791946308725</v>
+        <v>-24.57912457912458</v>
       </c>
     </row>
     <row r="358">
@@ -11709,13 +11709,13 @@
         <v>6629.79</v>
       </c>
       <c r="F358" t="n">
-        <v>183</v>
+        <v>427</v>
       </c>
       <c r="G358" t="n">
         <v>-33.28620620951008</v>
       </c>
       <c r="H358" t="n">
-        <v>-22.78481012658228</v>
+        <v>-26.50602409638554</v>
       </c>
     </row>
     <row r="359">
@@ -11741,13 +11741,13 @@
         <v>1672.01</v>
       </c>
       <c r="F359" t="n">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="G359" t="n">
         <v>75.83632176171797</v>
       </c>
       <c r="H359" t="n">
-        <v>100</v>
+        <v>75.26881720430107</v>
       </c>
     </row>
     <row r="360">
@@ -11773,13 +11773,13 @@
         <v>1172.1</v>
       </c>
       <c r="F360" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G360" t="n">
         <v>-37.72249556337205</v>
       </c>
       <c r="H360" t="n">
-        <v>-60</v>
+        <v>-62.5</v>
       </c>
     </row>
     <row r="361">
@@ -11805,13 +11805,13 @@
         <v>2237.02</v>
       </c>
       <c r="F361" t="n">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="G361" t="n">
         <v>604.1518461393182</v>
       </c>
       <c r="H361" t="n">
-        <v>733.3333333333334</v>
+        <v>629.0322580645161</v>
       </c>
     </row>
     <row r="362">
@@ -11893,13 +11893,13 @@
         <v>79.92</v>
       </c>
       <c r="F364" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G364" t="n">
         <v>-18.40735068912711</v>
       </c>
       <c r="H364" t="n">
-        <v>-16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
     </row>
     <row r="365">
@@ -11925,13 +11925,13 @@
         <v>265.86</v>
       </c>
       <c r="F365" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G365" t="n">
         <v>220.854453294714</v>
       </c>
       <c r="H365" t="n">
-        <v>14.28571428571428</v>
+        <v>128.5714285714286</v>
       </c>
     </row>
     <row r="366">
@@ -11957,13 +11957,13 @@
         <v>63.99</v>
       </c>
       <c r="F366" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G366" t="n">
         <v>-96.8415285442107</v>
       </c>
       <c r="H366" t="n">
-        <v>-25</v>
+        <v>-98.02955665024631</v>
       </c>
     </row>
     <row r="367">
@@ -11995,7 +11995,7 @@
         <v>-99.73582305230583</v>
       </c>
       <c r="H367" t="n">
-        <v>-66.66666666666667</v>
+        <v>-99.800796812749</v>
       </c>
     </row>
     <row r="368">
@@ -12027,7 +12027,7 @@
         <v>-95.41925155093057</v>
       </c>
       <c r="H368" t="n">
-        <v>-89.47368421052632</v>
+        <v>-93.93939393939394</v>
       </c>
     </row>
     <row r="369">
@@ -12053,13 +12053,13 @@
         <v>862.9300000000001</v>
       </c>
       <c r="F369" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G369" t="n">
         <v>-94.00761781749875</v>
       </c>
       <c r="H369" t="n">
-        <v>-90.12987012987013</v>
+        <v>-92.73182957393485</v>
       </c>
     </row>
     <row r="370">
@@ -12085,13 +12085,13 @@
         <v>8386.440000000001</v>
       </c>
       <c r="F370" t="n">
-        <v>233</v>
+        <v>444</v>
       </c>
       <c r="G370" t="n">
         <v>-89.37693669779401</v>
       </c>
       <c r="H370" t="n">
-        <v>-87.54676643506146</v>
+        <v>-88.14735718099305</v>
       </c>
     </row>
     <row r="371">
@@ -12117,13 +12117,13 @@
         <v>7223.2</v>
       </c>
       <c r="F371" t="n">
-        <v>146</v>
+        <v>333</v>
       </c>
       <c r="G371" t="n">
         <v>-69.28583790191895</v>
       </c>
       <c r="H371" t="n">
-        <v>-71.70542635658914</v>
+        <v>-70.58303886925795</v>
       </c>
     </row>
     <row r="372">
@@ -12149,13 +12149,13 @@
         <v>1899.49</v>
       </c>
       <c r="F372" t="n">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="G372" t="n">
         <v>-90.00940420075338</v>
       </c>
       <c r="H372" t="n">
-        <v>-85.84905660377359</v>
+        <v>-88.90020366598777</v>
       </c>
     </row>
     <row r="373">
@@ -12181,13 +12181,13 @@
         <v>40.78</v>
       </c>
       <c r="F373" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G373" t="n">
         <v>-92.87324583631883</v>
       </c>
       <c r="H373" t="n">
-        <v>-80</v>
+        <v>-89.58333333333334</v>
       </c>
     </row>
     <row r="374">
@@ -12213,13 +12213,13 @@
         <v>5275.92</v>
       </c>
       <c r="F374" t="n">
-        <v>131</v>
+        <v>279</v>
       </c>
       <c r="G374" t="n">
         <v>-53.24904564933062</v>
       </c>
       <c r="H374" t="n">
-        <v>-46.96356275303643</v>
+        <v>-46.95817490494296</v>
       </c>
     </row>
     <row r="375">
@@ -12245,13 +12245,13 @@
         <v>423.98</v>
       </c>
       <c r="F375" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G375" t="n">
         <v>200.609756097561</v>
       </c>
       <c r="H375" t="n">
-        <v>83.33333333333333</v>
+        <v>116.6666666666667</v>
       </c>
     </row>
     <row r="376">
@@ -12277,13 +12277,13 @@
         <v>161.7</v>
       </c>
       <c r="F376" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G376" t="n">
         <v>-80.67222872988931</v>
       </c>
       <c r="H376" t="n">
-        <v>-87.5</v>
+        <v>-87.80487804878049</v>
       </c>
     </row>
     <row r="377">
@@ -12309,13 +12309,13 @@
         <v>1556.62</v>
       </c>
       <c r="F377" t="n">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G377" t="n">
         <v>-90.03744709501808</v>
       </c>
       <c r="H377" t="n">
-        <v>-82.88590604026845</v>
+        <v>-86.76236044657098</v>
       </c>
     </row>
     <row r="378">
@@ -12341,13 +12341,13 @@
         <v>334.72</v>
       </c>
       <c r="F378" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G378" t="n">
         <v>-74.24398651872143</v>
       </c>
       <c r="H378" t="n">
-        <v>-78.46153846153847</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="379">
@@ -12373,13 +12373,13 @@
         <v>560.95</v>
       </c>
       <c r="F379" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G379" t="n">
         <v>14.9487704918033</v>
       </c>
       <c r="H379" t="n">
-        <v>-7.14285714285714</v>
+        <v>14.81481481481481</v>
       </c>
     </row>
     <row r="380">
@@ -12405,13 +12405,13 @@
         <v>35.97</v>
       </c>
       <c r="F380" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G380" t="n">
         <v>350.1877346683353</v>
       </c>
       <c r="H380" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="381">
@@ -12437,13 +12437,13 @@
         <v>435.2</v>
       </c>
       <c r="F381" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G381" t="n">
         <v>66.23376623376622</v>
       </c>
       <c r="H381" t="n">
-        <v>-33.33333333333334</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="382">
@@ -12469,13 +12469,13 @@
         <v>304.9</v>
       </c>
       <c r="F382" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G382" t="n">
         <v>-87.44828437930964</v>
       </c>
       <c r="H382" t="n">
-        <v>-81.81818181818181</v>
+        <v>-85.53459119496856</v>
       </c>
     </row>
     <row r="383">
@@ -12501,13 +12501,13 @@
         <v>13706.9</v>
       </c>
       <c r="F383" t="n">
-        <v>402</v>
+        <v>846</v>
       </c>
       <c r="G383" t="n">
         <v>-68.471112685484</v>
       </c>
       <c r="H383" t="n">
-        <v>-67.07616707616708</v>
+        <v>-67.24738675958189</v>
       </c>
     </row>
     <row r="384">
@@ -12533,13 +12533,13 @@
         <v>16249.88</v>
       </c>
       <c r="F384" t="n">
-        <v>358</v>
+        <v>937</v>
       </c>
       <c r="G384" t="n">
         <v>101.0531551349974</v>
       </c>
       <c r="H384" t="n">
-        <v>66.51162790697673</v>
+        <v>98.93842887473461</v>
       </c>
     </row>
     <row r="385">
@@ -12565,13 +12565,13 @@
         <v>1284.33</v>
       </c>
       <c r="F385" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="G385" t="n">
         <v>-79.74425012262304</v>
       </c>
       <c r="H385" t="n">
-        <v>-78.46153846153847</v>
+        <v>-80.23255813953489</v>
       </c>
     </row>
     <row r="386">
@@ -12597,13 +12597,13 @@
         <v>1007.02</v>
       </c>
       <c r="F386" t="n">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G386" t="n">
         <v>4.996350745490563</v>
       </c>
       <c r="H386" t="n">
-        <v>-15.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -12629,13 +12629,13 @@
         <v>1240.9</v>
       </c>
       <c r="F387" t="n">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="G387" t="n">
         <v>-52.95344252350621</v>
       </c>
       <c r="H387" t="n">
-        <v>-53.33333333333334</v>
+        <v>-51.03448275862069</v>
       </c>
     </row>
     <row r="388">
@@ -12661,13 +12661,13 @@
         <v>19.98</v>
       </c>
       <c r="F388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G388" t="n">
         <v>-44.45371142618849</v>
       </c>
       <c r="H388" t="n">
-        <v>-66.66666666666667</v>
+        <v>-33.33333333333334</v>
       </c>
     </row>
     <row r="389">
@@ -12693,13 +12693,13 @@
         <v>428.78</v>
       </c>
       <c r="F389" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G389" t="n">
         <v>-89.25072450688407</v>
       </c>
       <c r="H389" t="n">
-        <v>-88.51351351351352</v>
+        <v>-87.76978417266187</v>
       </c>
     </row>
     <row r="390">
@@ -12725,13 +12725,13 @@
         <v>4161.89</v>
       </c>
       <c r="F390" t="n">
-        <v>174</v>
+        <v>323</v>
       </c>
       <c r="G390" t="n">
         <v>-83.68197916711593</v>
       </c>
       <c r="H390" t="n">
-        <v>-68.24817518248175</v>
+        <v>-84.65558194774347</v>
       </c>
     </row>
     <row r="391">
@@ -12757,13 +12757,13 @@
         <v>2275.51</v>
       </c>
       <c r="F391" t="n">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="G391" t="n">
         <v>-35.29011966511965</v>
       </c>
       <c r="H391" t="n">
-        <v>-42.99065420560748</v>
+        <v>-38.83928571428571</v>
       </c>
     </row>
     <row r="392">
@@ -12789,13 +12789,13 @@
         <v>805.95</v>
       </c>
       <c r="F392" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G392" t="n">
         <v>-87.84350635540493</v>
       </c>
       <c r="H392" t="n">
-        <v>-83.60655737704919</v>
+        <v>-87.11943793911007</v>
       </c>
     </row>
     <row r="393">
@@ -12821,13 +12821,13 @@
         <v>819.1800000000001</v>
       </c>
       <c r="F393" t="n">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G393" t="n">
         <v>-51.00627388592174</v>
       </c>
       <c r="H393" t="n">
-        <v>-40.78947368421053</v>
+        <v>-49.69325153374233</v>
       </c>
     </row>
     <row r="394">
@@ -12853,13 +12853,13 @@
         <v>214.96</v>
       </c>
       <c r="F394" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G394" t="n">
         <v>-81.66026789523077</v>
       </c>
       <c r="H394" t="n">
-        <v>-55.55555555555556</v>
+        <v>-63.33333333333333</v>
       </c>
     </row>
     <row r="395">
@@ -12885,13 +12885,13 @@
         <v>743.7</v>
       </c>
       <c r="F395" t="n">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G395" t="n">
         <v>-66.75487925901422</v>
       </c>
       <c r="H395" t="n">
-        <v>-62</v>
+        <v>-66.3716814159292</v>
       </c>
     </row>
   </sheetData>

--- a/seasonal_patterns/seasonal_patterns.xlsx
+++ b/seasonal_patterns/seasonal_patterns.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/seasonal_patterns/seasonal_patterns.xlsx
+++ b/seasonal_patterns/seasonal_patterns.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
